--- a/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003504477978211</v>
+        <v>1.003504477978214</v>
       </c>
       <c r="D2">
-        <v>1.020627015511067</v>
+        <v>1.020627015511069</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.018537284435469</v>
+        <v>1.018537284435471</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047119090574992</v>
+        <v>1.047119090574994</v>
       </c>
       <c r="J2">
-        <v>1.02558087357772</v>
+        <v>1.025580873577722</v>
       </c>
       <c r="K2">
-        <v>1.031806272345966</v>
+        <v>1.031806272345968</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.029744267716009</v>
+        <v>1.029744267716011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,19 +462,19 @@
         <v>1.011516527778729</v>
       </c>
       <c r="D3">
-        <v>1.026768991160293</v>
+        <v>1.026768991160292</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.026040101552923</v>
+        <v>1.026040101552922</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050180673137963</v>
+        <v>1.050180673137962</v>
       </c>
       <c r="J3">
         <v>1.031698089296368</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016526003539612</v>
+        <v>1.016526003539609</v>
       </c>
       <c r="D4">
-        <v>1.030610478128659</v>
+        <v>1.030610478128657</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.030738708000211</v>
+        <v>1.030738708000208</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052079590063564</v>
+        <v>1.052079590063562</v>
       </c>
       <c r="J4">
-        <v>1.035516215585079</v>
+        <v>1.035516215585077</v>
       </c>
       <c r="K4">
-        <v>1.040352982196055</v>
+        <v>1.040352982196052</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.040479775848014</v>
+        <v>1.040479775848012</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018592680483337</v>
+        <v>1.018592680483338</v>
       </c>
       <c r="D5">
         <v>1.032195482604036</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.032678843993765</v>
+        <v>1.032678843993766</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052859254002206</v>
+        <v>1.052859254002207</v>
       </c>
       <c r="J5">
-        <v>1.03708974628182</v>
+        <v>1.037089746281821</v>
       </c>
       <c r="K5">
-        <v>1.04170500458704</v>
+        <v>1.041705004587041</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.042183109047565</v>
+        <v>1.042183109047566</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018937449469508</v>
+        <v>1.018937449469506</v>
       </c>
       <c r="D6">
-        <v>1.03245990526932</v>
+        <v>1.032459905269318</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.033002600964774</v>
+        <v>1.033002600964772</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052989097845958</v>
+        <v>1.052989097845957</v>
       </c>
       <c r="J6">
-        <v>1.037352148332838</v>
+        <v>1.037352148332836</v>
       </c>
       <c r="K6">
-        <v>1.041930421155561</v>
+        <v>1.04193042115556</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.042467243949945</v>
+        <v>1.042467243949943</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016553769828803</v>
+        <v>1.016553769828804</v>
       </c>
       <c r="D7">
-        <v>1.030631772449279</v>
+        <v>1.03063177244928</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.030764767531926</v>
+        <v>1.030764767531927</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052090079936209</v>
+        <v>1.05209007993621</v>
       </c>
       <c r="J7">
-        <v>1.035537362958484</v>
+        <v>1.035537362958485</v>
       </c>
       <c r="K7">
-        <v>1.040371155754403</v>
+        <v>1.040371155754404</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.040502661826229</v>
+        <v>1.04050266182623</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006250010222788</v>
+        <v>1.00625001022279</v>
       </c>
       <c r="D8">
-        <v>1.022731376966359</v>
+        <v>1.022731376966361</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.02110666022929</v>
+        <v>1.021106660229292</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048171419245238</v>
+        <v>1.048171419245239</v>
       </c>
       <c r="J8">
-        <v>1.027678453446252</v>
+        <v>1.027678453446254</v>
       </c>
       <c r="K8">
-        <v>1.033611994990497</v>
+        <v>1.033611994990498</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.032008121284959</v>
+        <v>1.032008121284961</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -693,7 +693,7 @@
         <v>1.007700362383242</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
         <v>1.002778116019777</v>
@@ -711,10 +711,10 @@
         <v>1.020669729891637</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>1.015826280462171</v>
+        <v>1.01582628046217</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9723455112852015</v>
+        <v>0.9723455112852012</v>
       </c>
       <c r="D10">
-        <v>0.9967850587168223</v>
+        <v>0.9967850587168217</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9894964441516784</v>
+        <v>0.9894964441516778</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.034987527106773</v>
       </c>
       <c r="J10">
-        <v>1.001700985361228</v>
+        <v>1.001700985361227</v>
       </c>
       <c r="K10">
-        <v>1.011212603555072</v>
+        <v>1.011212603555071</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
         <v>1.004057969049743</v>
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9658221662303339</v>
+        <v>0.9658221662303338</v>
       </c>
       <c r="D11">
         <v>0.9918062696896255</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9834440759337179</v>
+        <v>0.9834440759337181</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9986851155099352</v>
+        <v>0.9986851155099356</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9633422207570095</v>
+        <v>0.9633422207570099</v>
       </c>
       <c r="D12">
-        <v>0.9899149341510878</v>
+        <v>0.989914934151088</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9811456912980521</v>
+        <v>0.9811456912980522</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>1.005237932685019</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.996643249526193</v>
+        <v>0.9966432495261933</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9638768543243191</v>
+        <v>0.9638768543243192</v>
       </c>
       <c r="D13">
-        <v>0.9903226047150088</v>
+        <v>0.9903226047150087</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9816410661578328</v>
+        <v>0.9816410661578326</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1.005592920902973</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
         <v>0.9970834054712967</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9656183702260113</v>
+        <v>0.9656183702260114</v>
       </c>
       <c r="D14">
-        <v>0.9916508137723024</v>
+        <v>0.9916508137723022</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9832551478718901</v>
+        <v>0.9832551478718899</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032332230173665</v>
+        <v>1.032332230173666</v>
       </c>
       <c r="J14">
         <v>0.9965326841539488</v>
       </c>
       <c r="K14">
-        <v>1.006749098160155</v>
+        <v>1.006749098160154</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9985173043469088</v>
+        <v>0.9985173043469089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.966683649805358</v>
+        <v>0.9666836498053591</v>
       </c>
       <c r="D15">
-        <v>0.9924634701632988</v>
+        <v>0.9924634701632997</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9842428133008759</v>
+        <v>0.9842428133008777</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.03275339194173</v>
       </c>
       <c r="J15">
-        <v>0.9973513140082302</v>
+        <v>0.9973513140082312</v>
       </c>
       <c r="K15">
-        <v>1.00745620102431</v>
+        <v>1.007456201024311</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9993945142601693</v>
+        <v>0.9993945142601709</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,22 +953,22 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9727708035796016</v>
+        <v>0.9727708035796011</v>
       </c>
       <c r="D16">
-        <v>0.9971098335489647</v>
+        <v>0.9971098335489645</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.989891362565271</v>
+        <v>0.9898913625652708</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035155039532929</v>
+        <v>1.035155039532928</v>
       </c>
       <c r="J16">
         <v>1.002027618299207</v>
@@ -977,7 +977,7 @@
         <v>1.011494635824234</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
         <v>1.004408339710699</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.976494219840953</v>
+        <v>0.9764942198409515</v>
       </c>
       <c r="D17">
-        <v>0.9999541191230946</v>
+        <v>0.9999541191230931</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.993350586608897</v>
+        <v>0.993350586608896</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036619672341133</v>
+        <v>1.036619672341132</v>
       </c>
       <c r="J17">
-        <v>1.004886652664506</v>
+        <v>1.004886652664505</v>
       </c>
       <c r="K17">
-        <v>1.013962952845172</v>
+        <v>1.013962952845171</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.007476217349627</v>
+        <v>1.007476217349626</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9786336263282263</v>
+        <v>0.9786336263282259</v>
       </c>
       <c r="D18">
-        <v>1.001589096852941</v>
+        <v>1.00158909685294</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9953395964371583</v>
+        <v>0.9953395964371581</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9793577736172251</v>
+        <v>0.9793577736172246</v>
       </c>
       <c r="D19">
         <v>1.002142617046963</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9960130692316914</v>
+        <v>0.9960130692316912</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>1.015860122881144</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
         <v>1.009836063926163</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9760981224498915</v>
+        <v>0.9760981224498924</v>
       </c>
       <c r="D20">
-        <v>0.9996514688104406</v>
+        <v>0.9996514688104413</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9929824465116308</v>
+        <v>0.9929824465116315</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.036464033054333</v>
       </c>
       <c r="J20">
-        <v>1.004582563616973</v>
+        <v>1.004582563616974</v>
       </c>
       <c r="K20">
-        <v>1.013700449488775</v>
+        <v>1.013700449488776</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
         <v>1.007149823805992</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9651071584263617</v>
+        <v>0.9651071584263623</v>
       </c>
       <c r="D21">
-        <v>0.9912608844275285</v>
+        <v>0.9912608844275289</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9827812727244258</v>
+        <v>0.9827812727244261</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.032130033909058</v>
       </c>
       <c r="J21">
-        <v>0.9961398113324861</v>
+        <v>0.9961398113324865</v>
       </c>
       <c r="K21">
-        <v>1.006409735304919</v>
+        <v>1.00640973530492</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9980963706955908</v>
+        <v>0.9980963706955909</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9578640093769186</v>
+        <v>0.957864009376918</v>
       </c>
       <c r="D22">
-        <v>0.9857399227569579</v>
+        <v>0.985739922756957</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9760734771991022</v>
+        <v>0.9760734771991014</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.029259458095859</v>
       </c>
       <c r="J22">
-        <v>0.9905718370155951</v>
+        <v>0.9905718370155945</v>
       </c>
       <c r="K22">
-        <v>1.001599268308725</v>
+        <v>1.001599268308724</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9921343060461766</v>
+        <v>0.9921343060461758</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9617374540357562</v>
+        <v>0.9617374540357539</v>
       </c>
       <c r="D23">
-        <v>0.9886914932170837</v>
+        <v>0.9886914932170822</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9796591521151115</v>
+        <v>0.9796591521151095</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030795867613824</v>
+        <v>1.030795867613823</v>
       </c>
       <c r="J23">
-        <v>0.9935497769332636</v>
+        <v>0.9935497769332616</v>
       </c>
       <c r="K23">
-        <v>1.004172259533694</v>
+        <v>1.004172259533692</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9953221888436052</v>
+        <v>0.9953221888436034</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9762772015095686</v>
+        <v>0.9762772015095682</v>
       </c>
       <c r="D24">
-        <v>0.9997882974679433</v>
+        <v>0.9997882974679427</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
         <v>0.9931488814890831</v>
@@ -1275,13 +1275,13 @@
         <v>1.036534403995383</v>
       </c>
       <c r="J24">
-        <v>1.004720046598246</v>
+        <v>1.004720046598245</v>
       </c>
       <c r="K24">
         <v>1.01381913186016</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
         <v>1.007297388237468</v>
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9918922348879234</v>
+        <v>0.9918922348879231</v>
       </c>
       <c r="D25">
         <v>1.011731834737504</v>
@@ -1304,7 +1304,7 @@
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.007688970191657</v>
+        <v>1.007688970191656</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,13 +1316,13 @@
         <v>1.016695572741821</v>
       </c>
       <c r="K25">
-        <v>1.024150718572695</v>
+        <v>1.024150718572694</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.020169085982753</v>
+        <v>1.020169085982752</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003504477978214</v>
+        <v>1.003504477978211</v>
       </c>
       <c r="D2">
-        <v>1.020627015511069</v>
+        <v>1.020627015511067</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.018537284435471</v>
+        <v>1.018537284435469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047119090574994</v>
+        <v>1.047119090574992</v>
       </c>
       <c r="J2">
-        <v>1.025580873577722</v>
+        <v>1.02558087357772</v>
       </c>
       <c r="K2">
-        <v>1.031806272345968</v>
+        <v>1.031806272345966</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.029744267716011</v>
+        <v>1.029744267716009</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,19 +462,19 @@
         <v>1.011516527778729</v>
       </c>
       <c r="D3">
-        <v>1.026768991160292</v>
+        <v>1.026768991160293</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.026040101552922</v>
+        <v>1.026040101552923</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050180673137962</v>
+        <v>1.050180673137963</v>
       </c>
       <c r="J3">
         <v>1.031698089296368</v>
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016526003539609</v>
+        <v>1.016526003539612</v>
       </c>
       <c r="D4">
-        <v>1.030610478128657</v>
+        <v>1.030610478128659</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.030738708000208</v>
+        <v>1.030738708000211</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052079590063562</v>
+        <v>1.052079590063564</v>
       </c>
       <c r="J4">
-        <v>1.035516215585077</v>
+        <v>1.035516215585079</v>
       </c>
       <c r="K4">
-        <v>1.040352982196052</v>
+        <v>1.040352982196055</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.040479775848012</v>
+        <v>1.040479775848014</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018592680483338</v>
+        <v>1.018592680483337</v>
       </c>
       <c r="D5">
         <v>1.032195482604036</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.032678843993766</v>
+        <v>1.032678843993765</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052859254002207</v>
+        <v>1.052859254002206</v>
       </c>
       <c r="J5">
-        <v>1.037089746281821</v>
+        <v>1.03708974628182</v>
       </c>
       <c r="K5">
-        <v>1.041705004587041</v>
+        <v>1.04170500458704</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.042183109047566</v>
+        <v>1.042183109047565</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018937449469506</v>
+        <v>1.018937449469508</v>
       </c>
       <c r="D6">
-        <v>1.032459905269318</v>
+        <v>1.03245990526932</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.033002600964772</v>
+        <v>1.033002600964774</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052989097845957</v>
+        <v>1.052989097845958</v>
       </c>
       <c r="J6">
-        <v>1.037352148332836</v>
+        <v>1.037352148332838</v>
       </c>
       <c r="K6">
-        <v>1.04193042115556</v>
+        <v>1.041930421155561</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.042467243949943</v>
+        <v>1.042467243949945</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016553769828804</v>
+        <v>1.016553769828803</v>
       </c>
       <c r="D7">
-        <v>1.03063177244928</v>
+        <v>1.030631772449279</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.030764767531927</v>
+        <v>1.030764767531926</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05209007993621</v>
+        <v>1.052090079936209</v>
       </c>
       <c r="J7">
-        <v>1.035537362958485</v>
+        <v>1.035537362958484</v>
       </c>
       <c r="K7">
-        <v>1.040371155754404</v>
+        <v>1.040371155754403</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.04050266182623</v>
+        <v>1.040502661826229</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00625001022279</v>
+        <v>1.006250010222788</v>
       </c>
       <c r="D8">
-        <v>1.022731376966361</v>
+        <v>1.022731376966359</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.021106660229292</v>
+        <v>1.02110666022929</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048171419245239</v>
+        <v>1.048171419245238</v>
       </c>
       <c r="J8">
-        <v>1.027678453446254</v>
+        <v>1.027678453446252</v>
       </c>
       <c r="K8">
-        <v>1.033611994990498</v>
+        <v>1.033611994990497</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.032008121284961</v>
+        <v>1.032008121284959</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -693,7 +693,7 @@
         <v>1.007700362383242</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
         <v>1.002778116019777</v>
@@ -711,10 +711,10 @@
         <v>1.020669729891637</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.01582628046217</v>
+        <v>1.015826280462171</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9723455112852012</v>
+        <v>0.9723455112852015</v>
       </c>
       <c r="D10">
-        <v>0.9967850587168217</v>
+        <v>0.9967850587168223</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9894964441516778</v>
+        <v>0.9894964441516784</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.034987527106773</v>
       </c>
       <c r="J10">
-        <v>1.001700985361227</v>
+        <v>1.001700985361228</v>
       </c>
       <c r="K10">
-        <v>1.011212603555071</v>
+        <v>1.011212603555072</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
         <v>1.004057969049743</v>
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9658221662303338</v>
+        <v>0.9658221662303339</v>
       </c>
       <c r="D11">
         <v>0.9918062696896255</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9834440759337181</v>
+        <v>0.9834440759337179</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9986851155099356</v>
+        <v>0.9986851155099352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9633422207570099</v>
+        <v>0.9633422207570095</v>
       </c>
       <c r="D12">
-        <v>0.989914934151088</v>
+        <v>0.9899149341510878</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9811456912980522</v>
+        <v>0.9811456912980521</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>1.005237932685019</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9966432495261933</v>
+        <v>0.996643249526193</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9638768543243192</v>
+        <v>0.9638768543243191</v>
       </c>
       <c r="D13">
-        <v>0.9903226047150087</v>
+        <v>0.9903226047150088</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9816410661578326</v>
+        <v>0.9816410661578328</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1.005592920902973</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
         <v>0.9970834054712967</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9656183702260114</v>
+        <v>0.9656183702260113</v>
       </c>
       <c r="D14">
-        <v>0.9916508137723022</v>
+        <v>0.9916508137723024</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9832551478718899</v>
+        <v>0.9832551478718901</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032332230173666</v>
+        <v>1.032332230173665</v>
       </c>
       <c r="J14">
         <v>0.9965326841539488</v>
       </c>
       <c r="K14">
-        <v>1.006749098160154</v>
+        <v>1.006749098160155</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9985173043469089</v>
+        <v>0.9985173043469088</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9666836498053591</v>
+        <v>0.966683649805358</v>
       </c>
       <c r="D15">
-        <v>0.9924634701632997</v>
+        <v>0.9924634701632988</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9842428133008777</v>
+        <v>0.9842428133008759</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.03275339194173</v>
       </c>
       <c r="J15">
-        <v>0.9973513140082312</v>
+        <v>0.9973513140082302</v>
       </c>
       <c r="K15">
-        <v>1.007456201024311</v>
+        <v>1.00745620102431</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9993945142601709</v>
+        <v>0.9993945142601693</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,22 +953,22 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9727708035796011</v>
+        <v>0.9727708035796016</v>
       </c>
       <c r="D16">
-        <v>0.9971098335489645</v>
+        <v>0.9971098335489647</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9898913625652708</v>
+        <v>0.989891362565271</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035155039532928</v>
+        <v>1.035155039532929</v>
       </c>
       <c r="J16">
         <v>1.002027618299207</v>
@@ -977,7 +977,7 @@
         <v>1.011494635824234</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
         <v>1.004408339710699</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9764942198409515</v>
+        <v>0.976494219840953</v>
       </c>
       <c r="D17">
-        <v>0.9999541191230931</v>
+        <v>0.9999541191230946</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.993350586608896</v>
+        <v>0.993350586608897</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036619672341132</v>
+        <v>1.036619672341133</v>
       </c>
       <c r="J17">
-        <v>1.004886652664505</v>
+        <v>1.004886652664506</v>
       </c>
       <c r="K17">
-        <v>1.013962952845171</v>
+        <v>1.013962952845172</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.007476217349626</v>
+        <v>1.007476217349627</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9786336263282259</v>
+        <v>0.9786336263282263</v>
       </c>
       <c r="D18">
-        <v>1.00158909685294</v>
+        <v>1.001589096852941</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9953395964371581</v>
+        <v>0.9953395964371583</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9793577736172246</v>
+        <v>0.9793577736172251</v>
       </c>
       <c r="D19">
         <v>1.002142617046963</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9960130692316912</v>
+        <v>0.9960130692316914</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1091,7 +1091,7 @@
         <v>1.015860122881144</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
         <v>1.009836063926163</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9760981224498924</v>
+        <v>0.9760981224498915</v>
       </c>
       <c r="D20">
-        <v>0.9996514688104413</v>
+        <v>0.9996514688104406</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9929824465116315</v>
+        <v>0.9929824465116308</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.036464033054333</v>
       </c>
       <c r="J20">
-        <v>1.004582563616974</v>
+        <v>1.004582563616973</v>
       </c>
       <c r="K20">
-        <v>1.013700449488776</v>
+        <v>1.013700449488775</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
         <v>1.007149823805992</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9651071584263623</v>
+        <v>0.9651071584263617</v>
       </c>
       <c r="D21">
-        <v>0.9912608844275289</v>
+        <v>0.9912608844275285</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9827812727244261</v>
+        <v>0.9827812727244258</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.032130033909058</v>
       </c>
       <c r="J21">
-        <v>0.9961398113324865</v>
+        <v>0.9961398113324861</v>
       </c>
       <c r="K21">
-        <v>1.00640973530492</v>
+        <v>1.006409735304919</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9980963706955909</v>
+        <v>0.9980963706955908</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.957864009376918</v>
+        <v>0.9578640093769186</v>
       </c>
       <c r="D22">
-        <v>0.985739922756957</v>
+        <v>0.9857399227569579</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9760734771991014</v>
+        <v>0.9760734771991022</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.029259458095859</v>
       </c>
       <c r="J22">
-        <v>0.9905718370155945</v>
+        <v>0.9905718370155951</v>
       </c>
       <c r="K22">
-        <v>1.001599268308724</v>
+        <v>1.001599268308725</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9921343060461758</v>
+        <v>0.9921343060461766</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9617374540357539</v>
+        <v>0.9617374540357562</v>
       </c>
       <c r="D23">
-        <v>0.9886914932170822</v>
+        <v>0.9886914932170837</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9796591521151095</v>
+        <v>0.9796591521151115</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030795867613823</v>
+        <v>1.030795867613824</v>
       </c>
       <c r="J23">
-        <v>0.9935497769332616</v>
+        <v>0.9935497769332636</v>
       </c>
       <c r="K23">
-        <v>1.004172259533692</v>
+        <v>1.004172259533694</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9953221888436034</v>
+        <v>0.9953221888436052</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9762772015095682</v>
+        <v>0.9762772015095686</v>
       </c>
       <c r="D24">
-        <v>0.9997882974679427</v>
+        <v>0.9997882974679433</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
         <v>0.9931488814890831</v>
@@ -1275,13 +1275,13 @@
         <v>1.036534403995383</v>
       </c>
       <c r="J24">
-        <v>1.004720046598245</v>
+        <v>1.004720046598246</v>
       </c>
       <c r="K24">
         <v>1.01381913186016</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
         <v>1.007297388237468</v>
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9918922348879231</v>
+        <v>0.9918922348879234</v>
       </c>
       <c r="D25">
         <v>1.011731834737504</v>
@@ -1304,7 +1304,7 @@
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.007688970191656</v>
+        <v>1.007688970191657</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,13 +1316,13 @@
         <v>1.016695572741821</v>
       </c>
       <c r="K25">
-        <v>1.024150718572694</v>
+        <v>1.024150718572695</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.020169085982752</v>
+        <v>1.020169085982753</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003504477978211</v>
+        <v>1.006416071603032</v>
       </c>
       <c r="D2">
-        <v>1.020627015511067</v>
+        <v>1.022896467494677</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.018537284435469</v>
+        <v>1.020946973886755</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047119090574992</v>
+        <v>1.048455356377738</v>
       </c>
       <c r="J2">
-        <v>1.02558087357772</v>
+        <v>1.028406558066274</v>
       </c>
       <c r="K2">
-        <v>1.031806272345966</v>
+        <v>1.034045774251604</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.029744267716009</v>
+        <v>1.032121998099761</v>
+      </c>
+      <c r="N2">
+        <v>1.029867013338609</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011516527778729</v>
+        <v>1.014405055176694</v>
       </c>
       <c r="D3">
-        <v>1.026768991160293</v>
+        <v>1.029023346102421</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.026040101552923</v>
+        <v>1.028429238286211</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050180673137963</v>
+        <v>1.051509581352303</v>
       </c>
       <c r="J3">
-        <v>1.031698089296368</v>
+        <v>1.034510580952468</v>
       </c>
       <c r="K3">
-        <v>1.037070442124131</v>
+        <v>1.039297861976141</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.036350292723084</v>
+        <v>1.038710838366486</v>
+      </c>
+      <c r="N3">
+        <v>1.035979704637442</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016526003539612</v>
+        <v>1.019401143327094</v>
       </c>
       <c r="D4">
-        <v>1.030610478128659</v>
+        <v>1.032856128130295</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.030738708000211</v>
+        <v>1.033115865947665</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052079590063564</v>
+        <v>1.053404340408744</v>
       </c>
       <c r="J4">
-        <v>1.035516215585079</v>
+        <v>1.038321257251542</v>
       </c>
       <c r="K4">
-        <v>1.040352982196055</v>
+        <v>1.042573543576107</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.040479775848014</v>
+        <v>1.042830388235334</v>
+      </c>
+      <c r="N4">
+        <v>1.039795792533952</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018592680483337</v>
+        <v>1.021462524509099</v>
       </c>
       <c r="D5">
-        <v>1.032195482604036</v>
+        <v>1.034437703642241</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.032678843993765</v>
+        <v>1.035051251951425</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052859254002206</v>
+        <v>1.054182387442931</v>
       </c>
       <c r="J5">
-        <v>1.03708974628182</v>
+        <v>1.039891890880577</v>
       </c>
       <c r="K5">
-        <v>1.04170500458704</v>
+        <v>1.043922890590746</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.042183109047565</v>
+        <v>1.044529802532455</v>
+      </c>
+      <c r="N5">
+        <v>1.041368656642894</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018937449469508</v>
+        <v>1.02180642285675</v>
       </c>
       <c r="D6">
-        <v>1.03245990526932</v>
+        <v>1.034701563452254</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.033002600964774</v>
+        <v>1.035374227342338</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052989097845958</v>
+        <v>1.054311967134594</v>
       </c>
       <c r="J6">
-        <v>1.037352148332838</v>
+        <v>1.040153819607572</v>
       </c>
       <c r="K6">
-        <v>1.041930421155561</v>
+        <v>1.044147869567666</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.042467243949945</v>
+        <v>1.044813293790543</v>
+      </c>
+      <c r="N6">
+        <v>1.041630957338725</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016553769828803</v>
+        <v>1.01942883759156</v>
       </c>
       <c r="D7">
-        <v>1.030631772449279</v>
+        <v>1.032877375756233</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.030764767531926</v>
+        <v>1.033141860923207</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052090079936209</v>
+        <v>1.053414808177432</v>
       </c>
       <c r="J7">
-        <v>1.035537362958484</v>
+        <v>1.038342365021884</v>
       </c>
       <c r="K7">
-        <v>1.040371155754403</v>
+        <v>1.042591680595449</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.040502661826229</v>
+        <v>1.042853220871899</v>
+      </c>
+      <c r="N7">
+        <v>1.039816930279749</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006250010222788</v>
+        <v>1.009153466921469</v>
       </c>
       <c r="D8">
-        <v>1.022731376966359</v>
+        <v>1.024995490943059</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.02110666022929</v>
+        <v>1.023509110897274</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048171419245238</v>
+        <v>1.049505065046997</v>
       </c>
       <c r="J8">
-        <v>1.027678453446252</v>
+        <v>1.030499437983828</v>
       </c>
       <c r="K8">
-        <v>1.033611994990497</v>
+        <v>1.035847200944127</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.032008121284959</v>
+        <v>1.034379780858147</v>
+      </c>
+      <c r="N8">
+        <v>1.031962865385702</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9866248680055334</v>
+        <v>0.9895920539610259</v>
       </c>
       <c r="D9">
-        <v>1.007700362383242</v>
+        <v>1.010006539274098</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>1.002778116019777</v>
+        <v>1.005236983005783</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040585528572179</v>
+        <v>1.041940222919216</v>
       </c>
       <c r="J9">
-        <v>1.012658941370121</v>
+        <v>1.015517773916972</v>
       </c>
       <c r="K9">
-        <v>1.020669729891637</v>
+        <v>1.022939327073575</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.015826280462171</v>
+        <v>1.018245661416167</v>
+      </c>
+      <c r="N9">
+        <v>1.016959925637451</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9723455112852015</v>
+        <v>0.975367742920764</v>
       </c>
       <c r="D10">
-        <v>0.9967850587168223</v>
+        <v>0.9991278762230724</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9894964441516784</v>
+        <v>0.9920036217908236</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034987527106773</v>
+        <v>1.036361084891674</v>
       </c>
       <c r="J10">
-        <v>1.001700985361228</v>
+        <v>1.004593931244741</v>
       </c>
       <c r="K10">
-        <v>1.011212603555072</v>
+        <v>1.013512895007996</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.004057969049743</v>
+        <v>1.006518770001175</v>
+      </c>
+      <c r="N10">
+        <v>1.006020569855643</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9658221662303339</v>
+        <v>0.9688722138977571</v>
       </c>
       <c r="D11">
-        <v>0.9918062696896255</v>
+        <v>0.9941676644169537</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9834440759337179</v>
+        <v>0.9859755496760719</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032412820628968</v>
+        <v>1.033796064869101</v>
       </c>
       <c r="J11">
-        <v>0.9966892996059927</v>
+        <v>0.9995998344503616</v>
       </c>
       <c r="K11">
-        <v>1.006884379890284</v>
+        <v>1.009200414625957</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9986851155099352</v>
+        <v>1.001166883176445</v>
+      </c>
+      <c r="N11">
+        <v>1.001019380870985</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9633422207570095</v>
+        <v>0.9664033093807572</v>
       </c>
       <c r="D12">
-        <v>0.9899149341510878</v>
+        <v>0.9922837108474246</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9811456912980521</v>
+        <v>0.9836867896733853</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031431534847636</v>
+        <v>1.032818646373117</v>
       </c>
       <c r="J12">
-        <v>0.9947833169416779</v>
+        <v>0.9977008871546735</v>
       </c>
       <c r="K12">
-        <v>1.005237932685019</v>
+        <v>1.007560251089733</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.996643249526193</v>
+        <v>0.9991333437650296</v>
+      </c>
+      <c r="N12">
+        <v>0.9991177368523242</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9638768543243191</v>
+        <v>0.9669355404833642</v>
       </c>
       <c r="D13">
-        <v>0.9903226047150088</v>
+        <v>0.9926897747802715</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9816410661578328</v>
+        <v>0.9841800711420939</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031643192447565</v>
+        <v>1.033029461473067</v>
       </c>
       <c r="J13">
-        <v>0.9951942439266666</v>
+        <v>0.9981102808416057</v>
       </c>
       <c r="K13">
-        <v>1.005592920902973</v>
+        <v>1.007913870455575</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9970834054712967</v>
+        <v>0.999571687710203</v>
+      </c>
+      <c r="N13">
+        <v>0.99952771192525</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9656183702260113</v>
+        <v>0.9686693153480017</v>
       </c>
       <c r="D14">
-        <v>0.9916508137723024</v>
+        <v>0.9940128083805323</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9832551478718901</v>
+        <v>0.9857874043370738</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032332230173665</v>
+        <v>1.033715788318257</v>
       </c>
       <c r="J14">
-        <v>0.9965326841539488</v>
+        <v>0.9994437897803984</v>
       </c>
       <c r="K14">
-        <v>1.006749098160155</v>
+        <v>1.009065642966305</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9985173043469088</v>
+        <v>1.000999748752551</v>
+      </c>
+      <c r="N14">
+        <v>1.000863114599691</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.966683649805358</v>
+        <v>0.9697299231036842</v>
       </c>
       <c r="D15">
-        <v>0.9924634701632988</v>
+        <v>0.994822342326823</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9842428133008759</v>
+        <v>0.9867709944201032</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03275339194173</v>
+        <v>1.034135316904492</v>
       </c>
       <c r="J15">
-        <v>0.9973513140082302</v>
+        <v>1.000259450502162</v>
       </c>
       <c r="K15">
-        <v>1.00745620102431</v>
+        <v>1.009770091970913</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9993945142601693</v>
+        <v>1.001873435971363</v>
+      </c>
+      <c r="N15">
+        <v>1.001679933653238</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9727708035796016</v>
+        <v>0.975791281912926</v>
       </c>
       <c r="D16">
-        <v>0.9971098335489647</v>
+        <v>0.9994514812279699</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.989891362565271</v>
+        <v>0.9923970063367741</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035155039532929</v>
+        <v>1.036527989754618</v>
       </c>
       <c r="J16">
-        <v>1.002027618299207</v>
+        <v>1.004919462538265</v>
       </c>
       <c r="K16">
-        <v>1.011494635824234</v>
+        <v>1.013793939528569</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.004408339710699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.0068678197129</v>
+      </c>
+      <c r="N16">
+        <v>1.006346563440942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.976494219840953</v>
+        <v>0.979499654017978</v>
       </c>
       <c r="D17">
-        <v>0.9999541191230946</v>
+        <v>1.002285735584554</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.993350586608897</v>
+        <v>0.9958430565104078</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036619672341133</v>
+        <v>1.037987425710139</v>
       </c>
       <c r="J17">
-        <v>1.004886652664506</v>
+        <v>1.007769081686743</v>
       </c>
       <c r="K17">
-        <v>1.013962952845172</v>
+        <v>1.016253805920879</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.007476217349627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.009924366708961</v>
+      </c>
+      <c r="N17">
+        <v>1.009200229375467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9786336263282263</v>
+        <v>0.9816306609186088</v>
       </c>
       <c r="D18">
-        <v>1.001589096852941</v>
+        <v>1.00391511809382</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9953395964371583</v>
+        <v>0.997824700850747</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037459595461876</v>
+        <v>1.038824460877188</v>
       </c>
       <c r="J18">
-        <v>1.006528860864758</v>
+        <v>1.009406063838409</v>
       </c>
       <c r="K18">
-        <v>1.015380456676744</v>
+        <v>1.017666611982652</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.009239262354075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.011681088731845</v>
+      </c>
+      <c r="N18">
+        <v>1.010839536229553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9793577736172251</v>
+        <v>0.9823520048789958</v>
       </c>
       <c r="D19">
-        <v>1.002142617046963</v>
+        <v>1.004466771867217</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9960130692316914</v>
+        <v>0.99849571376566</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037743613309715</v>
+        <v>1.039107517208719</v>
       </c>
       <c r="J19">
-        <v>1.007084620868397</v>
+        <v>1.009960084854788</v>
       </c>
       <c r="K19">
-        <v>1.015860122881144</v>
+        <v>1.018144713802916</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.009836063926163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.012275780613377</v>
+      </c>
+      <c r="N19">
+        <v>1.011394344019322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9760981224498915</v>
+        <v>0.9791051311715367</v>
       </c>
       <c r="D20">
-        <v>0.9996514688104406</v>
+        <v>1.001984134583531</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9929824465116308</v>
+        <v>0.9954762962872271</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036464033054333</v>
+        <v>1.03783232890835</v>
       </c>
       <c r="J20">
-        <v>1.004582563616973</v>
+        <v>1.007465974810013</v>
       </c>
       <c r="K20">
-        <v>1.013700449488775</v>
+        <v>1.015992184869927</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.007149823805992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.009599158713898</v>
+      </c>
+      <c r="N20">
+        <v>1.008896692052206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9651071584263617</v>
+        <v>0.9681603625025031</v>
       </c>
       <c r="D21">
-        <v>0.9912608844275285</v>
+        <v>0.9936243891023507</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9827812727244258</v>
+        <v>0.9853154990456549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032130033909058</v>
+        <v>1.033514382527042</v>
       </c>
       <c r="J21">
-        <v>0.9961398113324861</v>
+        <v>0.9990523545156105</v>
       </c>
       <c r="K21">
-        <v>1.006409735304919</v>
+        <v>1.008727564544153</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9980963706955908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.000580518563974</v>
+      </c>
+      <c r="N21">
+        <v>1.00047112345193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9578640093769186</v>
+        <v>0.9609504350868879</v>
       </c>
       <c r="D22">
-        <v>0.9857399227569579</v>
+        <v>0.9881256537968328</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9760734771991022</v>
+        <v>0.9786366242048617</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029259458095859</v>
+        <v>1.030655485932189</v>
       </c>
       <c r="J22">
-        <v>0.9905718370155951</v>
+        <v>0.9935056551444498</v>
       </c>
       <c r="K22">
-        <v>1.001599268308725</v>
+        <v>1.003936071899861</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9921343060461766</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9946435150542633</v>
+      </c>
+      <c r="N22">
+        <v>0.9949165471314463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9617374540357562</v>
+        <v>0.9648058281497921</v>
       </c>
       <c r="D23">
-        <v>0.9886914932170837</v>
+        <v>0.9910651431377707</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9796591521151115</v>
+        <v>0.9822065957556768</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030795867613824</v>
+        <v>1.032185537271711</v>
       </c>
       <c r="J23">
-        <v>0.9935497769332636</v>
+        <v>0.9964720048890209</v>
       </c>
       <c r="K23">
-        <v>1.004172259533694</v>
+        <v>1.006498734077281</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9953221888436052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.997817778522551</v>
+      </c>
+      <c r="N23">
+        <v>0.9978871094328998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9762772015095686</v>
+        <v>0.9792834976101645</v>
       </c>
       <c r="D24">
-        <v>0.9997882974679433</v>
+        <v>1.002120488317105</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9931488814890831</v>
+        <v>0.9956421067811079</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036534403995383</v>
+        <v>1.037902454283978</v>
       </c>
       <c r="J24">
-        <v>1.004720046598246</v>
+        <v>1.007603013175232</v>
       </c>
       <c r="K24">
-        <v>1.01381913186016</v>
+        <v>1.01611046785545</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.007297388237468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.009746186569246</v>
+      </c>
+      <c r="N24">
+        <v>1.009033925027623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9918922348879234</v>
+        <v>0.9948410169616899</v>
       </c>
       <c r="D25">
-        <v>1.011731834737504</v>
+        <v>1.014025813407414</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.007688970191657</v>
+        <v>1.010131605735751</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042635213871624</v>
+        <v>1.043983721294383</v>
       </c>
       <c r="J25">
-        <v>1.016695572741821</v>
+        <v>1.019543257611257</v>
       </c>
       <c r="K25">
-        <v>1.024150718572695</v>
+        <v>1.026410229665894</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.020169085982753</v>
+        <v>1.02257465147392</v>
+      </c>
+      <c r="N25">
+        <v>1.020991125980311</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006416071603032</v>
+        <v>0.9951295163976493</v>
       </c>
       <c r="D2">
-        <v>1.022896467494677</v>
+        <v>1.013355726750367</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.020946973886755</v>
+        <v>1.001775925131473</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048455356377738</v>
+        <v>1.039423880717808</v>
       </c>
       <c r="J2">
-        <v>1.028406558066274</v>
+        <v>1.017456885121098</v>
       </c>
       <c r="K2">
-        <v>1.034045774251604</v>
+        <v>1.024632078745517</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.032121998099761</v>
+        <v>1.013210573820372</v>
       </c>
       <c r="N2">
-        <v>1.029867013338609</v>
+        <v>1.018901790601907</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014405055176694</v>
+        <v>1.001744469217331</v>
       </c>
       <c r="D3">
-        <v>1.029023346102421</v>
+        <v>1.018332099533733</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.028429238286211</v>
+        <v>1.008800115885516</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051509581352303</v>
+        <v>1.041446625469242</v>
       </c>
       <c r="J3">
-        <v>1.034510580952468</v>
+        <v>1.022187690948372</v>
       </c>
       <c r="K3">
-        <v>1.039297861976141</v>
+        <v>1.028735670234467</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.038710838366486</v>
+        <v>1.019321622354485</v>
       </c>
       <c r="N3">
-        <v>1.035979704637442</v>
+        <v>1.023639314716085</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019401143327094</v>
+        <v>1.005901129225169</v>
       </c>
       <c r="D4">
-        <v>1.032856128130295</v>
+        <v>1.021461394310964</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.033115865947665</v>
+        <v>1.013218749112947</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053404340408744</v>
+        <v>1.042705628793707</v>
       </c>
       <c r="J4">
-        <v>1.038321257251542</v>
+        <v>1.025155078671182</v>
       </c>
       <c r="K4">
-        <v>1.042573543576107</v>
+        <v>1.031307519668768</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.042830388235334</v>
+        <v>1.02316021097139</v>
       </c>
       <c r="N4">
-        <v>1.039795792533952</v>
+        <v>1.026610916469826</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021462524509099</v>
+        <v>1.007620522552433</v>
       </c>
       <c r="D5">
-        <v>1.034437703642241</v>
+        <v>1.022756271554436</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.035051251951425</v>
+        <v>1.015047668343016</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054182387442931</v>
+        <v>1.04322347234632</v>
       </c>
       <c r="J5">
-        <v>1.039891890880577</v>
+        <v>1.026381205112749</v>
       </c>
       <c r="K5">
-        <v>1.043922890590746</v>
+        <v>1.03236967720351</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.044529802532455</v>
+        <v>1.024747677619204</v>
       </c>
       <c r="N5">
-        <v>1.041368656642894</v>
+        <v>1.027838784151579</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02180642285675</v>
+        <v>1.007907612875618</v>
       </c>
       <c r="D6">
-        <v>1.034701563452254</v>
+        <v>1.02297250352768</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.035374227342338</v>
+        <v>1.015353114849013</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054311967134594</v>
+        <v>1.043309763223685</v>
       </c>
       <c r="J6">
-        <v>1.040153819607572</v>
+        <v>1.026585854301318</v>
       </c>
       <c r="K6">
-        <v>1.044147869567666</v>
+        <v>1.032546926839566</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.044813293790543</v>
+        <v>1.025012718504777</v>
       </c>
       <c r="N6">
-        <v>1.041630957338725</v>
+        <v>1.028043723965469</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01942883759156</v>
+        <v>1.005924212181875</v>
       </c>
       <c r="D7">
-        <v>1.032877375756233</v>
+        <v>1.021478776449113</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.033141860923207</v>
+        <v>1.01324329785927</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053414808177432</v>
+        <v>1.042712592578747</v>
       </c>
       <c r="J7">
-        <v>1.038342365021884</v>
+        <v>1.025171544806105</v>
       </c>
       <c r="K7">
-        <v>1.042591680595449</v>
+        <v>1.031321785938653</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.042853220871899</v>
+        <v>1.023181524235748</v>
       </c>
       <c r="N7">
-        <v>1.039816930279749</v>
+        <v>1.02662740598855</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009153466921469</v>
+        <v>0.9973916396214269</v>
       </c>
       <c r="D8">
-        <v>1.024995490943059</v>
+        <v>1.015056962990587</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.023509110897274</v>
+        <v>1.004176982513239</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049505065046997</v>
+        <v>1.040118107011007</v>
       </c>
       <c r="J8">
-        <v>1.030499437983828</v>
+        <v>1.019075776377567</v>
       </c>
       <c r="K8">
-        <v>1.035847200944127</v>
+        <v>1.026036768742798</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.034379780858147</v>
+        <v>1.015300669635188</v>
       </c>
       <c r="N8">
-        <v>1.031962865385702</v>
+        <v>1.020522980869648</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9895920539610259</v>
+        <v>0.9813329741319441</v>
       </c>
       <c r="D9">
-        <v>1.010006539274098</v>
+        <v>1.00299410492803</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.005236983005783</v>
+        <v>0.9871526235450373</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041940222919216</v>
+        <v>1.035140164024762</v>
       </c>
       <c r="J9">
-        <v>1.015517773916972</v>
+        <v>1.00756258239849</v>
       </c>
       <c r="K9">
-        <v>1.022939327073575</v>
+        <v>1.016038790932933</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208834082</v>
       </c>
       <c r="M9">
-        <v>1.018245661416167</v>
+        <v>1.000457637296471</v>
       </c>
       <c r="N9">
-        <v>1.016959925637451</v>
+        <v>1.008993436834539</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.975367742920764</v>
+        <v>0.9698201669455304</v>
       </c>
       <c r="D10">
-        <v>0.9991278762230724</v>
+        <v>0.9943693533321804</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>0.9920036217908236</v>
+        <v>0.9749736019228777</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036361084891674</v>
+        <v>1.031510427827245</v>
       </c>
       <c r="J10">
-        <v>1.004593931244741</v>
+        <v>0.9992845535017092</v>
       </c>
       <c r="K10">
-        <v>1.013512895007996</v>
+        <v>1.008841020528484</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.006518770001175</v>
+        <v>0.9898099113940061</v>
       </c>
       <c r="N10">
-        <v>1.006020569855643</v>
+        <v>1.000703652187222</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9688722138977571</v>
+        <v>0.9646126053898656</v>
       </c>
       <c r="D11">
-        <v>0.9941676644169537</v>
+        <v>0.9904755881500228</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9859755496760719</v>
+        <v>0.9694707990536268</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033796064869101</v>
+        <v>1.029855050178505</v>
       </c>
       <c r="J11">
-        <v>0.9995998344503616</v>
+        <v>0.9955354165314082</v>
       </c>
       <c r="K11">
-        <v>1.009200414625957</v>
+        <v>1.005579384240658</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.001166883176445</v>
+        <v>0.9849923681765702</v>
       </c>
       <c r="N11">
-        <v>1.001019380870985</v>
+        <v>0.996949191012391</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9664033093807572</v>
+        <v>0.9626418308108864</v>
       </c>
       <c r="D12">
-        <v>0.9922837108474246</v>
+        <v>0.9890033118340239</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9836867896733853</v>
+        <v>0.9673891989303376</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032818646373117</v>
+        <v>1.029226632315776</v>
       </c>
       <c r="J12">
-        <v>0.9977008871546735</v>
+        <v>0.9941159493385663</v>
       </c>
       <c r="K12">
-        <v>1.007560251089733</v>
+        <v>1.004344267697895</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>0.9991333437650296</v>
+        <v>0.9831690240568451</v>
       </c>
       <c r="N12">
-        <v>0.9991177368523242</v>
+        <v>0.9955277080133201</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9669355404833642</v>
+        <v>0.9630662712170437</v>
       </c>
       <c r="D13">
-        <v>0.9926897747802715</v>
+        <v>0.9893203303216606</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.9841800711420939</v>
+        <v>0.9678374667893277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033029461473067</v>
+        <v>1.029362059462436</v>
       </c>
       <c r="J13">
-        <v>0.9981102808416057</v>
+        <v>0.9944216828919653</v>
       </c>
       <c r="K13">
-        <v>1.007913870455575</v>
+        <v>1.004610304051505</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.999571687710203</v>
+        <v>0.9835617200524726</v>
       </c>
       <c r="N13">
-        <v>0.99952771192525</v>
+        <v>0.9958338757434334</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9686693153480017</v>
+        <v>0.9644504631212911</v>
       </c>
       <c r="D14">
-        <v>0.9940128083805323</v>
+        <v>0.9903544315792434</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9857874043370738</v>
+        <v>0.9692995204683283</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033715788318257</v>
+        <v>1.029803387117671</v>
       </c>
       <c r="J14">
-        <v>0.9994437897803984</v>
+        <v>0.9954186443312307</v>
       </c>
       <c r="K14">
-        <v>1.009065642966305</v>
+        <v>1.005477781886539</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.000999748752551</v>
+        <v>0.9848423588194049</v>
       </c>
       <c r="N14">
-        <v>1.000863114599691</v>
+        <v>0.9968322529822957</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9697299231036842</v>
+        <v>0.9652983816024236</v>
       </c>
       <c r="D15">
-        <v>0.994822342326823</v>
+        <v>0.9909880703971429</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9867709944201032</v>
+        <v>0.970195253859818</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034135316904492</v>
+        <v>1.030073478983524</v>
       </c>
       <c r="J15">
-        <v>1.000259450502162</v>
+        <v>0.996029276415241</v>
       </c>
       <c r="K15">
-        <v>1.009770091970913</v>
+        <v>1.006009078108577</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.001873435971363</v>
+        <v>0.9856268218091354</v>
       </c>
       <c r="N15">
-        <v>1.001679933653238</v>
+        <v>0.9974437522339054</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.975791281912926</v>
+        <v>0.9701608385259097</v>
       </c>
       <c r="D16">
-        <v>0.9994514812279699</v>
+        <v>0.9946242470258729</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9923970063367741</v>
+        <v>0.9753337133510377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036527989754618</v>
+        <v>1.031618447059256</v>
       </c>
       <c r="J16">
-        <v>1.004919462538265</v>
+        <v>0.9995297257547102</v>
       </c>
       <c r="K16">
-        <v>1.013793939528569</v>
+        <v>1.009054280082205</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.0068678197129</v>
+        <v>0.9901250438361292</v>
       </c>
       <c r="N16">
-        <v>1.006346563440942</v>
+        <v>1.000949172612944</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.979499654017978</v>
+        <v>0.9731493483342999</v>
       </c>
       <c r="D17">
-        <v>1.002285735584554</v>
+        <v>0.9968611388521607</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9958430565104078</v>
+        <v>0.9784934455664086</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037987425710139</v>
+        <v>1.032564516370836</v>
       </c>
       <c r="J17">
-        <v>1.007769081686743</v>
+        <v>1.001679949677478</v>
       </c>
       <c r="K17">
-        <v>1.016253805920879</v>
+        <v>1.010924428420652</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.009924366708961</v>
+        <v>0.9928893718128079</v>
       </c>
       <c r="N17">
-        <v>1.009200229375467</v>
+        <v>1.003102450100317</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9816306609186088</v>
+        <v>0.9748712572411868</v>
       </c>
       <c r="D18">
-        <v>1.00391511809382</v>
+        <v>0.9981506707583293</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.997824700850747</v>
+        <v>0.9803145834150901</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038824460877188</v>
+        <v>1.033108340003675</v>
       </c>
       <c r="J18">
-        <v>1.009406063838409</v>
+        <v>1.002918404950523</v>
       </c>
       <c r="K18">
-        <v>1.017666611982652</v>
+        <v>1.012001402570238</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.011681088731845</v>
+        <v>0.994481990408958</v>
       </c>
       <c r="N18">
-        <v>1.010839536229553</v>
+        <v>1.004342664121902</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9823520048789958</v>
+        <v>0.9754548674391252</v>
       </c>
       <c r="D19">
-        <v>1.004466771867217</v>
+        <v>0.9985878461101938</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="F19">
-        <v>0.99849571376566</v>
+        <v>0.9809319232335935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039107517208719</v>
+        <v>1.033292439858497</v>
       </c>
       <c r="J19">
-        <v>1.009960084854788</v>
+        <v>1.003338077856742</v>
       </c>
       <c r="K19">
-        <v>1.018144713802916</v>
+        <v>1.012366325193104</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
       <c r="M19">
-        <v>1.012275780613377</v>
+        <v>0.9950217586292935</v>
       </c>
       <c r="N19">
-        <v>1.011394344019322</v>
+        <v>1.004762933011784</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9791051311715367</v>
+        <v>0.9728309270279994</v>
       </c>
       <c r="D20">
-        <v>1.001984134583531</v>
+        <v>0.9966227286628451</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9954762962872271</v>
+        <v>0.9781567211150455</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03783232890835</v>
+        <v>1.032463846433938</v>
       </c>
       <c r="J20">
-        <v>1.007465974810013</v>
+        <v>1.001450892978883</v>
       </c>
       <c r="K20">
-        <v>1.015992184869927</v>
+        <v>1.01072522441123</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>1.009599158713898</v>
+        <v>0.9925948492759202</v>
       </c>
       <c r="N20">
-        <v>1.008896692052206</v>
+        <v>1.002873068114935</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9681603625025031</v>
+        <v>0.9640438857224654</v>
       </c>
       <c r="D21">
-        <v>0.9936243891023507</v>
+        <v>0.9900506487765335</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148893</v>
       </c>
       <c r="F21">
-        <v>0.9853154990456549</v>
+        <v>0.9688700479818673</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033514382527042</v>
+        <v>1.029673809159578</v>
       </c>
       <c r="J21">
-        <v>0.9990523545156105</v>
+        <v>0.9951258242160016</v>
       </c>
       <c r="K21">
-        <v>1.008727564544153</v>
+        <v>1.005222998516175</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981063</v>
       </c>
       <c r="M21">
-        <v>1.000580518563974</v>
+        <v>0.9844662024664823</v>
       </c>
       <c r="N21">
-        <v>1.00047112345193</v>
+        <v>0.9965390170289158</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9609504350868879</v>
+        <v>0.9583064141244921</v>
       </c>
       <c r="D22">
-        <v>0.9881256537968328</v>
+        <v>0.9857671296949517</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9786366242048617</v>
+        <v>0.9628116418858091</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030655485932189</v>
+        <v>1.02784071222545</v>
       </c>
       <c r="J22">
-        <v>0.9935056551444498</v>
+        <v>0.9909922798985206</v>
       </c>
       <c r="K22">
-        <v>1.003936071899861</v>
+        <v>1.001625915515159</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9946435150542633</v>
+        <v>0.9791576458831029</v>
       </c>
       <c r="N22">
-        <v>0.9949165471314463</v>
+        <v>0.9923996026043798</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9648058281497921</v>
+        <v>0.9613692362428328</v>
       </c>
       <c r="D23">
-        <v>0.9910651431377707</v>
+        <v>0.9880530043398942</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9822065957556768</v>
+        <v>0.9660452948244646</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032185537271711</v>
+        <v>1.028820304150108</v>
       </c>
       <c r="J23">
-        <v>0.9964720048890209</v>
+        <v>0.9931991876699329</v>
       </c>
       <c r="K23">
-        <v>1.006498734077281</v>
+        <v>1.003546511255071</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.997817778522551</v>
+        <v>0.9819915852941851</v>
       </c>
       <c r="N23">
-        <v>0.9978871094328998</v>
+        <v>0.9946096444379634</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9792834976101645</v>
+        <v>0.9729748733178457</v>
       </c>
       <c r="D24">
-        <v>1.002120488317105</v>
+        <v>0.9967305028151759</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011822</v>
       </c>
       <c r="F24">
-        <v>0.9956421067811079</v>
+        <v>0.9783089397823407</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037902454283978</v>
+        <v>1.032509359503937</v>
       </c>
       <c r="J24">
-        <v>1.007603013175232</v>
+        <v>1.001554442306397</v>
       </c>
       <c r="K24">
-        <v>1.01611046785545</v>
+        <v>1.010815278799482</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442542</v>
       </c>
       <c r="M24">
-        <v>1.009746186569246</v>
+        <v>0.9927279922121901</v>
       </c>
       <c r="N24">
-        <v>1.009033925027623</v>
+        <v>1.002976764494372</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9948410169616899</v>
+        <v>0.9856172480126771</v>
       </c>
       <c r="D25">
-        <v>1.014025813407414</v>
+        <v>1.006208932267098</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="F25">
-        <v>1.010131605735751</v>
+        <v>0.9916900622712573</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043983721294383</v>
+        <v>1.036478878122165</v>
       </c>
       <c r="J25">
-        <v>1.019543257611257</v>
+        <v>1.010638537010118</v>
       </c>
       <c r="K25">
-        <v>1.026410229665894</v>
+        <v>1.018711621163407</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9598754494005832</v>
       </c>
       <c r="M25">
-        <v>1.02257465147392</v>
+        <v>1.004418763770543</v>
       </c>
       <c r="N25">
-        <v>1.020991125980311</v>
+        <v>1.012073759654532</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9951295163976493</v>
+        <v>0.9885290148983891</v>
       </c>
       <c r="D2">
-        <v>1.013355726750367</v>
+        <v>1.008278882820601</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.000283744634662</v>
       </c>
       <c r="F2">
-        <v>1.001775925131473</v>
+        <v>1.002323071927141</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039423880717808</v>
+        <v>1.038193828202888</v>
       </c>
       <c r="J2">
-        <v>1.017456885121098</v>
+        <v>1.01105831933453</v>
       </c>
       <c r="K2">
-        <v>1.024632078745517</v>
+        <v>1.019624072105119</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.011739127858363</v>
       </c>
       <c r="M2">
-        <v>1.013210573820372</v>
+        <v>1.013750137267169</v>
       </c>
       <c r="N2">
-        <v>1.018901790601907</v>
+        <v>1.012494138117984</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001744469217331</v>
+        <v>0.9930141305709046</v>
       </c>
       <c r="D3">
-        <v>1.018332099533733</v>
+        <v>1.011325952928322</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.005938331346092</v>
       </c>
       <c r="F3">
-        <v>1.008800115885516</v>
+        <v>1.008293125499594</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041446625469242</v>
+        <v>1.039006942617308</v>
       </c>
       <c r="J3">
-        <v>1.022187690948372</v>
+        <v>1.013697066198478</v>
       </c>
       <c r="K3">
-        <v>1.028735670234467</v>
+        <v>1.021815938440542</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.016495789819434</v>
       </c>
       <c r="M3">
-        <v>1.019321622354485</v>
+        <v>1.018820982636621</v>
       </c>
       <c r="N3">
-        <v>1.023639314716085</v>
+        <v>1.015136632305159</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005901129225169</v>
+        <v>0.9958529837868516</v>
       </c>
       <c r="D4">
-        <v>1.021461394310964</v>
+        <v>1.013256440295369</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.009519739463932</v>
       </c>
       <c r="F4">
-        <v>1.013218749112947</v>
+        <v>1.012074167097871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042705628793707</v>
+        <v>1.039510019145943</v>
       </c>
       <c r="J4">
-        <v>1.025155078671182</v>
+        <v>1.015363368856459</v>
       </c>
       <c r="K4">
-        <v>1.031307519668768</v>
+        <v>1.023197461842103</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.019504611508479</v>
       </c>
       <c r="M4">
-        <v>1.02316021097139</v>
+        <v>1.022029019390391</v>
       </c>
       <c r="N4">
-        <v>1.026610916469826</v>
+        <v>1.016805301304041</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007620522552433</v>
+        <v>0.9970318406799152</v>
       </c>
       <c r="D5">
-        <v>1.022756271554436</v>
+        <v>1.014058467904381</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.011007648551839</v>
       </c>
       <c r="F5">
-        <v>1.015047668343016</v>
+        <v>1.013644973439613</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04322347234632</v>
+        <v>1.039716100394815</v>
       </c>
       <c r="J5">
-        <v>1.026381205112749</v>
+        <v>1.016054353648205</v>
       </c>
       <c r="K5">
-        <v>1.03236967720351</v>
+        <v>1.023769708052217</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>1.020753696937599</v>
       </c>
       <c r="M5">
-        <v>1.024747677619204</v>
+        <v>1.023360916202154</v>
       </c>
       <c r="N5">
-        <v>1.027838784151579</v>
+        <v>1.017497267373448</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007907612875618</v>
+        <v>0.997228935705177</v>
       </c>
       <c r="D6">
-        <v>1.02297250352768</v>
+        <v>1.014192580516428</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>1.011256459596644</v>
       </c>
       <c r="F6">
-        <v>1.015353114849013</v>
+        <v>1.013907644300603</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043309763223685</v>
+        <v>1.039750388028975</v>
       </c>
       <c r="J6">
-        <v>1.026585854301318</v>
+        <v>1.016169823254946</v>
       </c>
       <c r="K6">
-        <v>1.032546926839566</v>
+        <v>1.023865296684982</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>1.020962515827118</v>
       </c>
       <c r="M6">
-        <v>1.025012718504777</v>
+        <v>1.023583585531095</v>
       </c>
       <c r="N6">
-        <v>1.028043723965469</v>
+        <v>1.017612900960276</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005924212181875</v>
+        <v>0.9958687923660418</v>
       </c>
       <c r="D7">
-        <v>1.021478776449113</v>
+        <v>1.01326719415451</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>1.009539689516229</v>
       </c>
       <c r="F7">
-        <v>1.01324329785927</v>
+        <v>1.012095228808703</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042712592578747</v>
+        <v>1.039512793939225</v>
       </c>
       <c r="J7">
-        <v>1.025171544806105</v>
+        <v>1.015372638858818</v>
       </c>
       <c r="K7">
-        <v>1.031321785938653</v>
+        <v>1.023205141477896</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>1.019521363116221</v>
       </c>
       <c r="M7">
-        <v>1.023181524235748</v>
+        <v>1.022046881166363</v>
       </c>
       <c r="N7">
-        <v>1.02662740598855</v>
+        <v>1.016814584470867</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9973916396214269</v>
+        <v>0.9900582387071689</v>
       </c>
       <c r="D8">
-        <v>1.015056962990587</v>
+        <v>1.009317369354537</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>1.002211302520272</v>
       </c>
       <c r="F8">
-        <v>1.004176982513239</v>
+        <v>1.004358203429867</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040118107011007</v>
+        <v>1.038473467155793</v>
       </c>
       <c r="J8">
-        <v>1.019075776377567</v>
+        <v>1.011958814151125</v>
       </c>
       <c r="K8">
-        <v>1.026036768742798</v>
+        <v>1.020372592902124</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.01336140339426</v>
       </c>
       <c r="M8">
-        <v>1.015300669635188</v>
+        <v>1.015479461942248</v>
       </c>
       <c r="N8">
-        <v>1.020522980869648</v>
+        <v>1.013395911740518</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9813329741319441</v>
+        <v>0.9793074747874913</v>
       </c>
       <c r="D9">
-        <v>1.00299410492803</v>
+        <v>1.002027259723302</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9886639490376959</v>
       </c>
       <c r="F9">
-        <v>0.9871526235450373</v>
+        <v>0.9900540634497228</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035140164024762</v>
+        <v>1.036460150524258</v>
       </c>
       <c r="J9">
-        <v>1.00756258239849</v>
+        <v>1.005612712619828</v>
       </c>
       <c r="K9">
-        <v>1.016038790932933</v>
+        <v>1.015087531458542</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834082</v>
+        <v>1.001943662891272</v>
       </c>
       <c r="M9">
-        <v>1.000457637296471</v>
+        <v>1.003310594342713</v>
       </c>
       <c r="N9">
-        <v>1.008993436834539</v>
+        <v>1.007040798017138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9698201669455304</v>
+        <v>0.9717557525886732</v>
       </c>
       <c r="D10">
-        <v>0.9943693533321804</v>
+        <v>0.9969232645790385</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9791451119789861</v>
       </c>
       <c r="F10">
-        <v>0.9749736019228777</v>
+        <v>0.9800025416863335</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031510427827245</v>
+        <v>1.034987715090322</v>
       </c>
       <c r="J10">
-        <v>0.9992845535017092</v>
+        <v>1.001136589353482</v>
       </c>
       <c r="K10">
-        <v>1.008841020528484</v>
+        <v>1.011348293530864</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9939014012447245</v>
       </c>
       <c r="M10">
-        <v>0.9898099113940061</v>
+        <v>0.9947424936541038</v>
       </c>
       <c r="N10">
-        <v>1.000703652187222</v>
+        <v>1.002558318142336</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9646126053898656</v>
+        <v>0.9683846357225717</v>
       </c>
       <c r="D11">
-        <v>0.9904755881500228</v>
+        <v>0.9946499262506343</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9748925770112994</v>
       </c>
       <c r="F11">
-        <v>0.9694707990536268</v>
+        <v>0.9755118028054337</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029855050178505</v>
+        <v>1.034317290471462</v>
       </c>
       <c r="J11">
-        <v>0.9955354165314082</v>
+        <v>0.999134474021662</v>
       </c>
       <c r="K11">
-        <v>1.005579384240658</v>
+        <v>1.009673447359522</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9903040406696623</v>
       </c>
       <c r="M11">
-        <v>0.9849923681765702</v>
+        <v>0.9909107937291173</v>
       </c>
       <c r="N11">
-        <v>0.996949191012391</v>
+        <v>1.000553359577099</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9626418308108864</v>
+        <v>0.9671163275642346</v>
       </c>
       <c r="D12">
-        <v>0.9890033118340239</v>
+        <v>0.9937954990116861</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9732919108208753</v>
       </c>
       <c r="F12">
-        <v>0.9673891989303376</v>
+        <v>0.97382144132711</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029226632315776</v>
+        <v>1.034063146577947</v>
       </c>
       <c r="J12">
-        <v>0.9941159493385663</v>
+        <v>0.9983806631363942</v>
       </c>
       <c r="K12">
-        <v>1.004344267697895</v>
+        <v>1.009042540713921</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9889493296144485</v>
       </c>
       <c r="M12">
-        <v>0.9831690240568451</v>
+        <v>0.9894679747774555</v>
       </c>
       <c r="N12">
-        <v>0.9955277080133201</v>
+        <v>0.9997984781939103</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9630662712170437</v>
+        <v>0.9673891293588734</v>
       </c>
       <c r="D13">
-        <v>0.9893203303216606</v>
+        <v>0.9939792379394615</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.973636237728511</v>
       </c>
       <c r="F13">
-        <v>0.9678374667893277</v>
+        <v>0.9741850645894625</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029362059462436</v>
+        <v>1.034117896024368</v>
       </c>
       <c r="J13">
-        <v>0.9944216828919653</v>
+        <v>0.9985428258373035</v>
       </c>
       <c r="K13">
-        <v>1.004610304051505</v>
+        <v>1.009178277427681</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9892407771701848</v>
       </c>
       <c r="M13">
-        <v>0.9835617200524726</v>
+        <v>0.9897783710235654</v>
       </c>
       <c r="N13">
-        <v>0.9958338757434334</v>
+        <v>0.9999608711844553</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9644504631212911</v>
+        <v>0.9682801315428839</v>
       </c>
       <c r="D14">
-        <v>0.9903544315792434</v>
+        <v>0.9945795062342074</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9747607043207308</v>
       </c>
       <c r="F14">
-        <v>0.9692995204683283</v>
+        <v>0.9753725411748912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029803387117671</v>
+        <v>1.034296388381626</v>
       </c>
       <c r="J14">
-        <v>0.9954186443312307</v>
+        <v>0.9990723737847889</v>
       </c>
       <c r="K14">
-        <v>1.005477781886539</v>
+        <v>1.009621478375514</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9901924444451748</v>
       </c>
       <c r="M14">
-        <v>0.9848423588194049</v>
+        <v>0.9907919365765524</v>
       </c>
       <c r="N14">
-        <v>0.9968322529822957</v>
+        <v>1.000491171150766</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9652983816024236</v>
+        <v>0.9688269416895751</v>
       </c>
       <c r="D15">
-        <v>0.9909880703971429</v>
+        <v>0.9949480094831274</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9754506862584984</v>
       </c>
       <c r="F15">
-        <v>0.970195253859818</v>
+        <v>0.9761011819772606</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030073478983524</v>
+        <v>1.034405679458189</v>
       </c>
       <c r="J15">
-        <v>0.996029276415241</v>
+        <v>0.9993972859615182</v>
       </c>
       <c r="K15">
-        <v>1.006009078108577</v>
+        <v>1.00989337061165</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9907763096848307</v>
       </c>
       <c r="M15">
-        <v>0.9856268218091354</v>
+        <v>0.9914137963784752</v>
       </c>
       <c r="N15">
-        <v>0.9974437522339054</v>
+        <v>1.000816544740055</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9701608385259097</v>
+        <v>0.9719772736485827</v>
       </c>
       <c r="D16">
-        <v>0.9946242470258729</v>
+        <v>0.9970727634833789</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9794244632839203</v>
       </c>
       <c r="F16">
-        <v>0.9753337133510377</v>
+        <v>0.98029753596498</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031618447059256</v>
+        <v>1.035031501566871</v>
       </c>
       <c r="J16">
-        <v>0.9995297257547102</v>
+        <v>1.001268071896854</v>
       </c>
       <c r="K16">
-        <v>1.009054280082205</v>
+        <v>1.011458238176238</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9941376220857349</v>
       </c>
       <c r="M16">
-        <v>0.9901250438361292</v>
+        <v>0.994994121337756</v>
       </c>
       <c r="N16">
-        <v>1.000949172612944</v>
+        <v>1.002689987406001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9731493483342999</v>
+        <v>0.9739256769717998</v>
       </c>
       <c r="D17">
-        <v>0.9968611388521607</v>
+        <v>0.9983882829333174</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9818811144666403</v>
       </c>
       <c r="F17">
-        <v>0.9784934455664086</v>
+        <v>0.982891727589757</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032564516370836</v>
+        <v>1.035415143722559</v>
       </c>
       <c r="J17">
-        <v>1.001679949677478</v>
+        <v>1.002424089807597</v>
       </c>
       <c r="K17">
-        <v>1.010924428420652</v>
+        <v>1.012424630525363</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9962144710352612</v>
       </c>
       <c r="M17">
-        <v>0.9928893718128079</v>
+        <v>0.9972065270865226</v>
       </c>
       <c r="N17">
-        <v>1.003102450100317</v>
+        <v>1.003847646994774</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748712572411868</v>
+        <v>0.9750524524337093</v>
       </c>
       <c r="D18">
-        <v>0.9981506707583293</v>
+        <v>0.9991495339878655</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9833015190094464</v>
       </c>
       <c r="F18">
-        <v>0.9803145834150901</v>
+        <v>0.9843916347851002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033108340003675</v>
+        <v>1.035635759243542</v>
       </c>
       <c r="J18">
-        <v>1.002918404950523</v>
+        <v>1.003092245889851</v>
       </c>
       <c r="K18">
-        <v>1.012001402570238</v>
+        <v>1.012982963748435</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9974148527023616</v>
       </c>
       <c r="M18">
-        <v>0.994481990408958</v>
+        <v>0.9984853400283379</v>
       </c>
       <c r="N18">
-        <v>1.004342664121902</v>
+        <v>1.004516751935303</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9754548674391252</v>
+        <v>0.9754350361633457</v>
       </c>
       <c r="D19">
-        <v>0.9985878461101938</v>
+        <v>0.9994080860900159</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9837837582950451</v>
       </c>
       <c r="F19">
-        <v>0.9809319232335935</v>
+        <v>0.9849008622580634</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033292439858497</v>
+        <v>1.035710453358956</v>
       </c>
       <c r="J19">
-        <v>1.003338077856742</v>
+        <v>1.003319045618635</v>
       </c>
       <c r="K19">
-        <v>1.012366325193104</v>
+        <v>1.013172446230422</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9978223195528853</v>
       </c>
       <c r="M19">
-        <v>0.9950217586292935</v>
+        <v>0.9989194438065204</v>
       </c>
       <c r="N19">
-        <v>1.004762933011784</v>
+        <v>1.004743873745716</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9728309270279994</v>
+        <v>0.9737176410083128</v>
       </c>
       <c r="D20">
-        <v>0.9966227286628451</v>
+        <v>0.998247771412537</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9816188438313015</v>
       </c>
       <c r="F20">
-        <v>0.9781567211150455</v>
+        <v>0.9826147754507993</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032463846433938</v>
+        <v>1.035374310312141</v>
       </c>
       <c r="J20">
-        <v>1.001450892978883</v>
+        <v>1.00230069774824</v>
       </c>
       <c r="K20">
-        <v>1.01072522441123</v>
+        <v>1.012321501781954</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9959927919471436</v>
       </c>
       <c r="M20">
-        <v>0.9925948492759202</v>
+        <v>0.996970370347764</v>
       </c>
       <c r="N20">
-        <v>1.002873068114935</v>
+        <v>1.003724079704539</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9640438857224654</v>
+        <v>0.9680182065541393</v>
       </c>
       <c r="D21">
-        <v>0.9900506487765335</v>
+        <v>0.9944030226866711</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148893</v>
+        <v>0.9744301711479035</v>
       </c>
       <c r="F21">
-        <v>0.9688700479818673</v>
+        <v>0.9750234873847604</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029673809159578</v>
+        <v>1.034243969667302</v>
       </c>
       <c r="J21">
-        <v>0.9951258242160016</v>
+        <v>0.9989167194133634</v>
       </c>
       <c r="K21">
-        <v>1.005222998516175</v>
+        <v>1.009491213061098</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981063</v>
+        <v>0.9899127228870325</v>
       </c>
       <c r="M21">
-        <v>0.9844662024664823</v>
+        <v>0.99049401743624</v>
       </c>
       <c r="N21">
-        <v>0.9965390170289158</v>
+        <v>1.000335295732279</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9583064141244921</v>
+        <v>0.9643409353373722</v>
       </c>
       <c r="D22">
-        <v>0.9857671296949517</v>
+        <v>0.9919274941870778</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9697875667599866</v>
       </c>
       <c r="F22">
-        <v>0.9628116418858091</v>
+        <v>0.9701206625892881</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02784071222545</v>
+        <v>1.033503564640549</v>
       </c>
       <c r="J22">
-        <v>0.9909922798985206</v>
+        <v>0.9967301371019474</v>
       </c>
       <c r="K22">
-        <v>1.001625915515159</v>
+        <v>1.007660583327</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9859822749864925</v>
       </c>
       <c r="M22">
-        <v>0.9791576458831029</v>
+        <v>0.9863082187070756</v>
       </c>
       <c r="N22">
-        <v>0.9923996026043798</v>
+        <v>0.998145608223177</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9613692362428328</v>
+        <v>0.9662995477037654</v>
       </c>
       <c r="D23">
-        <v>0.9880530043398942</v>
+        <v>0.9932455118669565</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9722608522874301</v>
       </c>
       <c r="F23">
-        <v>0.9660452948244646</v>
+        <v>0.9727325963238262</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028820304150108</v>
+        <v>1.033898949099294</v>
       </c>
       <c r="J23">
-        <v>0.9931991876699329</v>
+        <v>0.9978950620924704</v>
       </c>
       <c r="K23">
-        <v>1.003546511255071</v>
+        <v>1.008636029703156</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9880765196437894</v>
       </c>
       <c r="M23">
-        <v>0.9819915852941851</v>
+        <v>0.98853843979047</v>
       </c>
       <c r="N23">
-        <v>0.9946096444379634</v>
+        <v>0.999312187540805</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9729748733178457</v>
+        <v>0.973811673398715</v>
       </c>
       <c r="D24">
-        <v>0.9967305028151759</v>
+        <v>0.998311281239664</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011822</v>
+        <v>0.9817373912225743</v>
       </c>
       <c r="F24">
-        <v>0.9783089397823407</v>
+        <v>0.982739959007882</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032509359503937</v>
+        <v>1.035392770913611</v>
       </c>
       <c r="J24">
-        <v>1.001554442306397</v>
+        <v>1.002356472211855</v>
       </c>
       <c r="K24">
-        <v>1.010815278799482</v>
+        <v>1.012368117715276</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
+        <v>0.9960929931172914</v>
       </c>
       <c r="M24">
-        <v>0.9927279922121901</v>
+        <v>0.9970771153079165</v>
       </c>
       <c r="N24">
-        <v>1.002976764494372</v>
+        <v>1.00377993337429</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9856172480126771</v>
+        <v>0.9821514388647617</v>
       </c>
       <c r="D25">
-        <v>1.006208932267098</v>
+        <v>1.003953208713614</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9922473643951171</v>
       </c>
       <c r="F25">
-        <v>0.9916900622712573</v>
+        <v>0.9938378173518017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036478878122165</v>
+        <v>1.0370029757048</v>
       </c>
       <c r="J25">
-        <v>1.010638537010118</v>
+        <v>1.007294778990916</v>
       </c>
       <c r="K25">
-        <v>1.018711621163407</v>
+        <v>1.016490464619563</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>1.004967234158431</v>
       </c>
       <c r="M25">
-        <v>1.004418763770543</v>
+        <v>1.006532552446651</v>
       </c>
       <c r="N25">
-        <v>1.012073759654532</v>
+        <v>1.00872525311541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9885290148983891</v>
+        <v>1.02097251208699</v>
       </c>
       <c r="D2">
-        <v>1.008278882820601</v>
+        <v>1.025227522138852</v>
       </c>
       <c r="E2">
-        <v>1.000283744634662</v>
+        <v>1.046499714841461</v>
       </c>
       <c r="F2">
-        <v>1.002323071927141</v>
+        <v>1.050236659084414</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038193828202888</v>
+        <v>1.027652599957388</v>
       </c>
       <c r="J2">
-        <v>1.01105831933453</v>
+        <v>1.026166605366576</v>
       </c>
       <c r="K2">
-        <v>1.019624072105119</v>
+        <v>1.028053709786372</v>
       </c>
       <c r="L2">
-        <v>1.011739127858363</v>
+        <v>1.049264978267421</v>
       </c>
       <c r="M2">
-        <v>1.013750137267169</v>
+        <v>1.052991496207353</v>
       </c>
       <c r="N2">
-        <v>1.012494138117984</v>
+        <v>1.027623879649152</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9930141305709046</v>
+        <v>1.021904087663062</v>
       </c>
       <c r="D3">
-        <v>1.011325952928322</v>
+        <v>1.025873153972127</v>
       </c>
       <c r="E3">
-        <v>1.005938331346092</v>
+        <v>1.047771839125077</v>
       </c>
       <c r="F3">
-        <v>1.008293125499594</v>
+        <v>1.051580900851814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039006942617308</v>
+        <v>1.027754859853377</v>
       </c>
       <c r="J3">
-        <v>1.013697066198478</v>
+        <v>1.026735692402735</v>
       </c>
       <c r="K3">
-        <v>1.021815938440542</v>
+        <v>1.028507039143563</v>
       </c>
       <c r="L3">
-        <v>1.016495789819434</v>
+        <v>1.05034756155312</v>
       </c>
       <c r="M3">
-        <v>1.018820982636621</v>
+        <v>1.054146773395805</v>
       </c>
       <c r="N3">
-        <v>1.015136632305159</v>
+        <v>1.028193774854177</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9958529837868516</v>
+        <v>1.022506935067554</v>
       </c>
       <c r="D4">
-        <v>1.013256440295369</v>
+        <v>1.02629074800314</v>
       </c>
       <c r="E4">
-        <v>1.009519739463932</v>
+        <v>1.048595713681215</v>
       </c>
       <c r="F4">
-        <v>1.012074167097871</v>
+        <v>1.052451500481056</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039510019145943</v>
+        <v>1.027819572241009</v>
       </c>
       <c r="J4">
-        <v>1.015363368856459</v>
+        <v>1.02710339399349</v>
       </c>
       <c r="K4">
-        <v>1.023197461842103</v>
+        <v>1.028799516947302</v>
       </c>
       <c r="L4">
-        <v>1.019504611508479</v>
+        <v>1.051048236949373</v>
       </c>
       <c r="M4">
-        <v>1.022029019390391</v>
+        <v>1.0548945607812</v>
       </c>
       <c r="N4">
-        <v>1.016805301304041</v>
+        <v>1.028561998623367</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9970318406799152</v>
+        <v>1.022760385045016</v>
       </c>
       <c r="D5">
-        <v>1.014058467904381</v>
+        <v>1.026466262032566</v>
       </c>
       <c r="E5">
-        <v>1.011007648551839</v>
+        <v>1.048942245750696</v>
       </c>
       <c r="F5">
-        <v>1.013644973439613</v>
+        <v>1.052817690229949</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039716100394815</v>
+        <v>1.027846428196417</v>
       </c>
       <c r="J5">
-        <v>1.016054353648205</v>
+        <v>1.027257846994057</v>
       </c>
       <c r="K5">
-        <v>1.023769708052217</v>
+        <v>1.028922268848545</v>
       </c>
       <c r="L5">
-        <v>1.020753696937599</v>
+        <v>1.051342843355426</v>
       </c>
       <c r="M5">
-        <v>1.023360916202154</v>
+        <v>1.055208990787999</v>
       </c>
       <c r="N5">
-        <v>1.017497267373448</v>
+        <v>1.02871667096491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.997228935705177</v>
+        <v>1.022802941157726</v>
       </c>
       <c r="D6">
-        <v>1.014192580516428</v>
+        <v>1.026495729086048</v>
       </c>
       <c r="E6">
-        <v>1.011256459596644</v>
+        <v>1.049000440331395</v>
       </c>
       <c r="F6">
-        <v>1.013907644300603</v>
+        <v>1.052879186270475</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039750388028975</v>
+        <v>1.027850916944026</v>
       </c>
       <c r="J6">
-        <v>1.016169823254946</v>
+        <v>1.02728377276857</v>
       </c>
       <c r="K6">
-        <v>1.023865296684982</v>
+        <v>1.028942867346341</v>
       </c>
       <c r="L6">
-        <v>1.020962515827118</v>
+        <v>1.051392311598102</v>
       </c>
       <c r="M6">
-        <v>1.023583585531095</v>
+        <v>1.055261788538541</v>
       </c>
       <c r="N6">
-        <v>1.017612900960276</v>
+        <v>1.028742633556997</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9958687923660418</v>
+        <v>1.02251032162827</v>
       </c>
       <c r="D7">
-        <v>1.01326719415451</v>
+        <v>1.026293093398588</v>
       </c>
       <c r="E7">
-        <v>1.009539689516229</v>
+        <v>1.048600343369208</v>
       </c>
       <c r="F7">
-        <v>1.012095228808703</v>
+        <v>1.052456392779064</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039512793939225</v>
+        <v>1.027819932463977</v>
       </c>
       <c r="J7">
-        <v>1.015372638858818</v>
+        <v>1.027105458308548</v>
       </c>
       <c r="K7">
-        <v>1.023205141477896</v>
+        <v>1.028801157973621</v>
       </c>
       <c r="L7">
-        <v>1.019521363116221</v>
+        <v>1.051052173325975</v>
       </c>
       <c r="M7">
-        <v>1.022046881166363</v>
+        <v>1.054898761972143</v>
       </c>
       <c r="N7">
-        <v>1.016814584470867</v>
+        <v>1.028564065869989</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9900582387071689</v>
+        <v>1.021287330632618</v>
       </c>
       <c r="D8">
-        <v>1.009317369354537</v>
+        <v>1.025445751588003</v>
       </c>
       <c r="E8">
-        <v>1.002211302520272</v>
+        <v>1.046929486040021</v>
       </c>
       <c r="F8">
-        <v>1.004358203429867</v>
+        <v>1.050690790273903</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038473467155793</v>
+        <v>1.027687460515932</v>
       </c>
       <c r="J8">
-        <v>1.011958814151125</v>
+        <v>1.02635904164137</v>
       </c>
       <c r="K8">
-        <v>1.020372592902124</v>
+        <v>1.028207091513833</v>
       </c>
       <c r="L8">
-        <v>1.01336140339426</v>
+        <v>1.049630807653294</v>
       </c>
       <c r="M8">
-        <v>1.015479461942248</v>
+        <v>1.053381877457932</v>
       </c>
       <c r="N8">
-        <v>1.013395911740518</v>
+        <v>1.027816589205529</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9793074747874913</v>
+        <v>1.01913270860595</v>
       </c>
       <c r="D9">
-        <v>1.002027259723302</v>
+        <v>1.023951350769963</v>
       </c>
       <c r="E9">
-        <v>0.9886639490376959</v>
+        <v>1.043990702732765</v>
       </c>
       <c r="F9">
-        <v>0.9900540634497228</v>
+        <v>1.047585513527534</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036460150524258</v>
+        <v>1.027442890548744</v>
       </c>
       <c r="J9">
-        <v>1.005612712619828</v>
+        <v>1.025039677671849</v>
       </c>
       <c r="K9">
-        <v>1.015087531458542</v>
+        <v>1.027153740327915</v>
       </c>
       <c r="L9">
-        <v>1.001943662891272</v>
+        <v>1.047127432267162</v>
       </c>
       <c r="M9">
-        <v>1.003310594342713</v>
+        <v>1.050710755339201</v>
       </c>
       <c r="N9">
-        <v>1.007040798017138</v>
+        <v>1.026495351587837</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9717557525886732</v>
+        <v>1.017696614033007</v>
       </c>
       <c r="D10">
-        <v>0.9969232645790385</v>
+        <v>1.02295428922285</v>
       </c>
       <c r="E10">
-        <v>0.9791451119789861</v>
+        <v>1.042035095711526</v>
       </c>
       <c r="F10">
-        <v>0.9800025416863335</v>
+        <v>1.045519217413411</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034987715090322</v>
+        <v>1.027272379955651</v>
       </c>
       <c r="J10">
-        <v>1.001136589353482</v>
+        <v>1.024157383540399</v>
       </c>
       <c r="K10">
-        <v>1.011348293530864</v>
+        <v>1.02644715541768</v>
       </c>
       <c r="L10">
-        <v>0.9939014012447245</v>
+        <v>1.045459269277532</v>
       </c>
       <c r="M10">
-        <v>0.9947424936541038</v>
+        <v>1.04893114619275</v>
       </c>
       <c r="N10">
-        <v>1.002558318142336</v>
+        <v>1.02561180449752</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9683846357225717</v>
+        <v>1.017074848851538</v>
       </c>
       <c r="D11">
-        <v>0.9946499262506343</v>
+        <v>1.022522375217032</v>
       </c>
       <c r="E11">
-        <v>0.9748925770112994</v>
+        <v>1.041189122321459</v>
       </c>
       <c r="F11">
-        <v>0.9755118028054337</v>
+        <v>1.044625386519218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034317290471462</v>
+        <v>1.027196781571935</v>
       </c>
       <c r="J11">
-        <v>0.999134474021662</v>
+        <v>1.023774700821082</v>
       </c>
       <c r="K11">
-        <v>1.009673447359522</v>
+        <v>1.026140172382716</v>
       </c>
       <c r="L11">
-        <v>0.9903040406696623</v>
+        <v>1.044737094937413</v>
       </c>
       <c r="M11">
-        <v>0.9909107937291173</v>
+        <v>1.048160806118585</v>
       </c>
       <c r="N11">
-        <v>1.000553359577099</v>
+        <v>1.025228578324847</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9671163275642346</v>
+        <v>1.016843908784027</v>
       </c>
       <c r="D12">
-        <v>0.9937954990116861</v>
+        <v>1.022361917121736</v>
       </c>
       <c r="E12">
-        <v>0.9732919108208753</v>
+        <v>1.040875010832447</v>
       </c>
       <c r="F12">
-        <v>0.97382144132711</v>
+        <v>1.044293509321804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034063146577947</v>
+        <v>1.027168435979471</v>
       </c>
       <c r="J12">
-        <v>0.9983806631363942</v>
+        <v>1.023632459077601</v>
       </c>
       <c r="K12">
-        <v>1.009042540713921</v>
+        <v>1.026025991491831</v>
       </c>
       <c r="L12">
-        <v>0.9889493296144485</v>
+        <v>1.044468868140997</v>
       </c>
       <c r="M12">
-        <v>0.9894679747774555</v>
+        <v>1.047874702147725</v>
       </c>
       <c r="N12">
-        <v>0.9997984781939103</v>
+        <v>1.025086134581776</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9673891293588734</v>
+        <v>1.016893445702186</v>
       </c>
       <c r="D13">
-        <v>0.9939792379394615</v>
+        <v>1.022396337088432</v>
       </c>
       <c r="E13">
-        <v>0.973636237728511</v>
+        <v>1.040942383385163</v>
       </c>
       <c r="F13">
-        <v>0.9741850645894625</v>
+        <v>1.044364692196038</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034117896024368</v>
+        <v>1.027174528190704</v>
       </c>
       <c r="J13">
-        <v>0.9985428258373035</v>
+        <v>1.02366297476867</v>
       </c>
       <c r="K13">
-        <v>1.009178277427681</v>
+        <v>1.026050490627421</v>
       </c>
       <c r="L13">
-        <v>0.9892407771701848</v>
+        <v>1.044526402782303</v>
       </c>
       <c r="M13">
-        <v>0.9897783710235654</v>
+        <v>1.047936070882224</v>
       </c>
       <c r="N13">
-        <v>0.9999608711844553</v>
+        <v>1.025116693608626</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9682801315428839</v>
+        <v>1.017055759043775</v>
       </c>
       <c r="D14">
-        <v>0.9945795062342074</v>
+        <v>1.022509112225463</v>
       </c>
       <c r="E14">
-        <v>0.9747607043207308</v>
+        <v>1.041163155317802</v>
       </c>
       <c r="F14">
-        <v>0.9753725411748912</v>
+        <v>1.044597950778633</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034296388381626</v>
+        <v>1.027194443919986</v>
       </c>
       <c r="J14">
-        <v>0.9990723737847889</v>
+        <v>1.023762945037583</v>
       </c>
       <c r="K14">
-        <v>1.009621478375514</v>
+        <v>1.026130737287177</v>
       </c>
       <c r="L14">
-        <v>0.9901924444451748</v>
+        <v>1.044714922810705</v>
       </c>
       <c r="M14">
-        <v>0.9907919365765524</v>
+        <v>1.048137155978963</v>
       </c>
       <c r="N14">
-        <v>1.000491171150766</v>
+        <v>1.025216805846787</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9688269416895751</v>
+        <v>1.017155767141319</v>
       </c>
       <c r="D15">
-        <v>0.9949480094831274</v>
+        <v>1.02257859329386</v>
       </c>
       <c r="E15">
-        <v>0.9754506862584984</v>
+        <v>1.041299196122291</v>
       </c>
       <c r="F15">
-        <v>0.9761011819772606</v>
+        <v>1.044741686436317</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034405679458189</v>
+        <v>1.027206679555557</v>
       </c>
       <c r="J15">
-        <v>0.9993972859615182</v>
+        <v>1.023824527263557</v>
       </c>
       <c r="K15">
-        <v>1.00989337061165</v>
+        <v>1.026180159550426</v>
       </c>
       <c r="L15">
-        <v>0.9907763096848307</v>
+        <v>1.044831078938492</v>
       </c>
       <c r="M15">
-        <v>0.9914137963784752</v>
+        <v>1.048261055679294</v>
       </c>
       <c r="N15">
-        <v>1.000816544740055</v>
+        <v>1.025278475526586</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9719772736485827</v>
+        <v>1.017737880100698</v>
       </c>
       <c r="D16">
-        <v>0.9970727634833789</v>
+        <v>1.022982950231333</v>
       </c>
       <c r="E16">
-        <v>0.9794244632839203</v>
+        <v>1.042091257220419</v>
       </c>
       <c r="F16">
-        <v>0.98029753596498</v>
+        <v>1.04557855657088</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035031501566871</v>
+        <v>1.027277359990993</v>
       </c>
       <c r="J16">
-        <v>1.001268071896854</v>
+        <v>1.024182767402757</v>
       </c>
       <c r="K16">
-        <v>1.011458238176238</v>
+        <v>1.026467507280992</v>
       </c>
       <c r="L16">
-        <v>0.9941376220857349</v>
+        <v>1.045507200641655</v>
       </c>
       <c r="M16">
-        <v>0.994994121337756</v>
+        <v>1.048982276081267</v>
       </c>
       <c r="N16">
-        <v>1.002689987406001</v>
+        <v>1.025637224407875</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9739256769717998</v>
+        <v>1.018103043932715</v>
       </c>
       <c r="D17">
-        <v>0.9983882829333174</v>
+        <v>1.023236545236681</v>
       </c>
       <c r="E17">
-        <v>0.9818811144666403</v>
+        <v>1.042588313565403</v>
       </c>
       <c r="F17">
-        <v>0.982891727589757</v>
+        <v>1.046103739569858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035415143722559</v>
+        <v>1.027321223361358</v>
       </c>
       <c r="J17">
-        <v>1.002424089807597</v>
+        <v>1.024407309926148</v>
       </c>
       <c r="K17">
-        <v>1.012424630525363</v>
+        <v>1.026647478351398</v>
       </c>
       <c r="L17">
-        <v>0.9962144710352612</v>
+        <v>1.045931353134016</v>
       </c>
       <c r="M17">
-        <v>0.9972065270865226</v>
+        <v>1.049434742226267</v>
       </c>
       <c r="N17">
-        <v>1.003847646994774</v>
+        <v>1.025862085807404</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9750524524337093</v>
+        <v>1.018316044871541</v>
       </c>
       <c r="D18">
-        <v>0.9991495339878655</v>
+        <v>1.023384445499806</v>
       </c>
       <c r="E18">
-        <v>0.9833015190094464</v>
+        <v>1.042878317125771</v>
       </c>
       <c r="F18">
-        <v>0.9843916347851002</v>
+        <v>1.046410155844231</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035635759243542</v>
+        <v>1.027346637689091</v>
       </c>
       <c r="J18">
-        <v>1.003092245889851</v>
+        <v>1.024538219666188</v>
       </c>
       <c r="K18">
-        <v>1.012982963748435</v>
+        <v>1.026752353291813</v>
       </c>
       <c r="L18">
-        <v>0.9974148527023616</v>
+        <v>1.04617876882096</v>
       </c>
       <c r="M18">
-        <v>0.9984853400283379</v>
+        <v>1.049698681584422</v>
       </c>
       <c r="N18">
-        <v>1.004516751935303</v>
+        <v>1.02599318145429</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9754350361633457</v>
+        <v>1.018388673877557</v>
       </c>
       <c r="D19">
-        <v>0.9994080860900159</v>
+        <v>1.023434872683182</v>
       </c>
       <c r="E19">
-        <v>0.9837837582950451</v>
+        <v>1.042977214309937</v>
       </c>
       <c r="F19">
-        <v>0.9849008622580634</v>
+        <v>1.046514650513997</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035710453358956</v>
+        <v>1.027355274398519</v>
       </c>
       <c r="J19">
-        <v>1.003319045618635</v>
+        <v>1.024582845958336</v>
       </c>
       <c r="K19">
-        <v>1.013172446230422</v>
+        <v>1.026788096102475</v>
       </c>
       <c r="L19">
-        <v>0.9978223195528853</v>
+        <v>1.046263133727433</v>
       </c>
       <c r="M19">
-        <v>0.9989194438065204</v>
+        <v>1.049788682127104</v>
       </c>
       <c r="N19">
-        <v>1.004743873745716</v>
+        <v>1.026037871120892</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9737176410083128</v>
+        <v>1.018063864578264</v>
       </c>
       <c r="D20">
-        <v>0.998247771412537</v>
+        <v>1.023209338686385</v>
       </c>
       <c r="E20">
-        <v>0.9816188438313015</v>
+        <v>1.042534975966877</v>
       </c>
       <c r="F20">
-        <v>0.9826147754507993</v>
+        <v>1.046047383532951</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035374310312141</v>
+        <v>1.027316534863008</v>
       </c>
       <c r="J20">
-        <v>1.00230069774824</v>
+        <v>1.02438322506073</v>
       </c>
       <c r="K20">
-        <v>1.012321501781954</v>
+        <v>1.026628179408992</v>
       </c>
       <c r="L20">
-        <v>0.9959927919471436</v>
+        <v>1.045885844076639</v>
       </c>
       <c r="M20">
-        <v>0.996970370347764</v>
+        <v>1.049386194471859</v>
       </c>
       <c r="N20">
-        <v>1.003724079704539</v>
+        <v>1.025837966738714</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9680182065541393</v>
+        <v>1.017007961499308</v>
       </c>
       <c r="D21">
-        <v>0.9944030226866711</v>
+        <v>1.022475903468195</v>
       </c>
       <c r="E21">
-        <v>0.9744301711479035</v>
+        <v>1.041098140171342</v>
       </c>
       <c r="F21">
-        <v>0.9750234873847604</v>
+        <v>1.044529258330091</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034243969667302</v>
+        <v>1.027188586546138</v>
       </c>
       <c r="J21">
-        <v>0.9989167194133634</v>
+        <v>1.023733508941874</v>
       </c>
       <c r="K21">
-        <v>1.009491213061098</v>
+        <v>1.026107110884785</v>
       </c>
       <c r="L21">
-        <v>0.9899127228870325</v>
+        <v>1.044659407798463</v>
       </c>
       <c r="M21">
-        <v>0.99049401743624</v>
+        <v>1.048077940488237</v>
       </c>
       <c r="N21">
-        <v>1.000335295732279</v>
+        <v>1.025187327948447</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9643409353373722</v>
+        <v>1.016344138252725</v>
       </c>
       <c r="D22">
-        <v>0.9919274941870778</v>
+        <v>1.022014613687925</v>
       </c>
       <c r="E22">
-        <v>0.9697875667599866</v>
+        <v>1.040195441743549</v>
       </c>
       <c r="F22">
-        <v>0.9701206625892881</v>
+        <v>1.043575511900692</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033503564640549</v>
+        <v>1.027106607407403</v>
       </c>
       <c r="J22">
-        <v>0.9967301371019474</v>
+        <v>1.023324449389974</v>
       </c>
       <c r="K22">
-        <v>1.007660583327</v>
+        <v>1.025778605315533</v>
       </c>
       <c r="L22">
-        <v>0.9859822749864925</v>
+        <v>1.04388841870618</v>
       </c>
       <c r="M22">
-        <v>0.9863082187070756</v>
+        <v>1.047255588770356</v>
       </c>
       <c r="N22">
-        <v>0.998145608223177</v>
+        <v>1.024777687485062</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9662995477037654</v>
+        <v>1.016696037294373</v>
       </c>
       <c r="D23">
-        <v>0.9932455118669565</v>
+        <v>1.022259166007111</v>
       </c>
       <c r="E23">
-        <v>0.9722608522874301</v>
+        <v>1.040673913868998</v>
       </c>
       <c r="F23">
-        <v>0.9727325963238262</v>
+        <v>1.044081039692024</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033898949099294</v>
+        <v>1.02715021128608</v>
       </c>
       <c r="J23">
-        <v>0.9978950620924704</v>
+        <v>1.023541352304588</v>
       </c>
       <c r="K23">
-        <v>1.008636029703156</v>
+        <v>1.025952836415031</v>
       </c>
       <c r="L23">
-        <v>0.9880765196437894</v>
+        <v>1.044297123835323</v>
       </c>
       <c r="M23">
-        <v>0.98853843979047</v>
+        <v>1.047691514663763</v>
       </c>
       <c r="N23">
-        <v>0.999312187540805</v>
+        <v>1.024994898426695</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.973811673398715</v>
+        <v>1.01808156802019</v>
       </c>
       <c r="D24">
-        <v>0.998311281239664</v>
+        <v>1.023221632209236</v>
       </c>
       <c r="E24">
-        <v>0.9817373912225743</v>
+        <v>1.0425590766871</v>
       </c>
       <c r="F24">
-        <v>0.982739959007882</v>
+        <v>1.04607284813417</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035392770913611</v>
+        <v>1.027318653920225</v>
       </c>
       <c r="J24">
-        <v>1.002356472211855</v>
+        <v>1.024394108166571</v>
       </c>
       <c r="K24">
-        <v>1.012368117715276</v>
+        <v>1.026636900076682</v>
       </c>
       <c r="L24">
-        <v>0.9960929931172914</v>
+        <v>1.045906407614799</v>
       </c>
       <c r="M24">
-        <v>0.9970771153079165</v>
+        <v>1.049408131039222</v>
       </c>
       <c r="N24">
-        <v>1.00377993337429</v>
+        <v>1.025848865299814</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9821514388647617</v>
+        <v>1.019689675183869</v>
       </c>
       <c r="D25">
-        <v>1.003953208713614</v>
+        <v>1.024337833856198</v>
       </c>
       <c r="E25">
-        <v>0.9922473643951171</v>
+        <v>1.044749809791122</v>
       </c>
       <c r="F25">
-        <v>0.9938378173518017</v>
+        <v>1.048387608917724</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0370029757048</v>
+        <v>1.027507435091734</v>
       </c>
       <c r="J25">
-        <v>1.007294778990916</v>
+        <v>1.025381245917533</v>
       </c>
       <c r="K25">
-        <v>1.016490464619563</v>
+        <v>1.027426826610438</v>
       </c>
       <c r="L25">
-        <v>1.004967234158431</v>
+        <v>1.047774475473954</v>
       </c>
       <c r="M25">
-        <v>1.006532552446651</v>
+        <v>1.051401097383402</v>
       </c>
       <c r="N25">
-        <v>1.00872525311541</v>
+        <v>1.026837404899609</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.02097251208699</v>
+        <v>0.9885290148983893</v>
       </c>
       <c r="D2">
-        <v>1.025227522138852</v>
+        <v>1.008278882820602</v>
       </c>
       <c r="E2">
-        <v>1.046499714841461</v>
+        <v>1.000283744634662</v>
       </c>
       <c r="F2">
-        <v>1.050236659084414</v>
+        <v>1.002323071927141</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027652599957388</v>
+        <v>1.038193828202888</v>
       </c>
       <c r="J2">
-        <v>1.026166605366576</v>
+        <v>1.01105831933453</v>
       </c>
       <c r="K2">
-        <v>1.028053709786372</v>
+        <v>1.019624072105119</v>
       </c>
       <c r="L2">
-        <v>1.049264978267421</v>
+        <v>1.011739127858363</v>
       </c>
       <c r="M2">
-        <v>1.052991496207353</v>
+        <v>1.013750137267169</v>
       </c>
       <c r="N2">
-        <v>1.027623879649152</v>
+        <v>1.012494138117985</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021904087663062</v>
+        <v>0.9930141305709045</v>
       </c>
       <c r="D3">
-        <v>1.025873153972127</v>
+        <v>1.011325952928322</v>
       </c>
       <c r="E3">
-        <v>1.047771839125077</v>
+        <v>1.005938331346093</v>
       </c>
       <c r="F3">
-        <v>1.051580900851814</v>
+        <v>1.008293125499595</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027754859853377</v>
+        <v>1.039006942617308</v>
       </c>
       <c r="J3">
-        <v>1.026735692402735</v>
+        <v>1.013697066198478</v>
       </c>
       <c r="K3">
-        <v>1.028507039143563</v>
+        <v>1.021815938440541</v>
       </c>
       <c r="L3">
-        <v>1.05034756155312</v>
+        <v>1.016495789819435</v>
       </c>
       <c r="M3">
-        <v>1.054146773395805</v>
+        <v>1.018820982636621</v>
       </c>
       <c r="N3">
-        <v>1.028193774854177</v>
+        <v>1.015136632305158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022506935067554</v>
+        <v>0.9958529837868516</v>
       </c>
       <c r="D4">
-        <v>1.02629074800314</v>
+        <v>1.013256440295369</v>
       </c>
       <c r="E4">
-        <v>1.048595713681215</v>
+        <v>1.009519739463933</v>
       </c>
       <c r="F4">
-        <v>1.052451500481056</v>
+        <v>1.012074167097872</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027819572241009</v>
+        <v>1.039510019145943</v>
       </c>
       <c r="J4">
-        <v>1.02710339399349</v>
+        <v>1.015363368856459</v>
       </c>
       <c r="K4">
-        <v>1.028799516947302</v>
+        <v>1.023197461842103</v>
       </c>
       <c r="L4">
-        <v>1.051048236949373</v>
+        <v>1.019504611508479</v>
       </c>
       <c r="M4">
-        <v>1.0548945607812</v>
+        <v>1.022029019390392</v>
       </c>
       <c r="N4">
-        <v>1.028561998623367</v>
+        <v>1.016805301304041</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022760385045016</v>
+        <v>0.997031840679915</v>
       </c>
       <c r="D5">
-        <v>1.026466262032566</v>
+        <v>1.014058467904381</v>
       </c>
       <c r="E5">
-        <v>1.048942245750696</v>
+        <v>1.011007648551838</v>
       </c>
       <c r="F5">
-        <v>1.052817690229949</v>
+        <v>1.013644973439612</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027846428196417</v>
+        <v>1.039716100394815</v>
       </c>
       <c r="J5">
-        <v>1.027257846994057</v>
+        <v>1.016054353648205</v>
       </c>
       <c r="K5">
-        <v>1.028922268848545</v>
+        <v>1.023769708052217</v>
       </c>
       <c r="L5">
-        <v>1.051342843355426</v>
+        <v>1.020753696937598</v>
       </c>
       <c r="M5">
-        <v>1.055208990787999</v>
+        <v>1.023360916202153</v>
       </c>
       <c r="N5">
-        <v>1.02871667096491</v>
+        <v>1.017497267373448</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022802941157726</v>
+        <v>0.9972289357051779</v>
       </c>
       <c r="D6">
-        <v>1.026495729086048</v>
+        <v>1.014192580516429</v>
       </c>
       <c r="E6">
-        <v>1.049000440331395</v>
+        <v>1.011256459596645</v>
       </c>
       <c r="F6">
-        <v>1.052879186270475</v>
+        <v>1.013907644300604</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027850916944026</v>
+        <v>1.039750388028976</v>
       </c>
       <c r="J6">
-        <v>1.02728377276857</v>
+        <v>1.016169823254947</v>
       </c>
       <c r="K6">
-        <v>1.028942867346341</v>
+        <v>1.023865296684983</v>
       </c>
       <c r="L6">
-        <v>1.051392311598102</v>
+        <v>1.020962515827118</v>
       </c>
       <c r="M6">
-        <v>1.055261788538541</v>
+        <v>1.023583585531096</v>
       </c>
       <c r="N6">
-        <v>1.028742633556997</v>
+        <v>1.017612900960277</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02251032162827</v>
+        <v>0.9958687923660426</v>
       </c>
       <c r="D7">
-        <v>1.026293093398588</v>
+        <v>1.013267194154511</v>
       </c>
       <c r="E7">
-        <v>1.048600343369208</v>
+        <v>1.00953968951623</v>
       </c>
       <c r="F7">
-        <v>1.052456392779064</v>
+        <v>1.012095228808704</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027819932463977</v>
+        <v>1.039512793939226</v>
       </c>
       <c r="J7">
-        <v>1.027105458308548</v>
+        <v>1.015372638858819</v>
       </c>
       <c r="K7">
-        <v>1.028801157973621</v>
+        <v>1.023205141477897</v>
       </c>
       <c r="L7">
-        <v>1.051052173325975</v>
+        <v>1.019521363116221</v>
       </c>
       <c r="M7">
-        <v>1.054898761972143</v>
+        <v>1.022046881166364</v>
       </c>
       <c r="N7">
-        <v>1.028564065869989</v>
+        <v>1.016814584470868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021287330632618</v>
+        <v>0.9900582387071695</v>
       </c>
       <c r="D8">
-        <v>1.025445751588003</v>
+        <v>1.009317369354538</v>
       </c>
       <c r="E8">
-        <v>1.046929486040021</v>
+        <v>1.002211302520272</v>
       </c>
       <c r="F8">
-        <v>1.050690790273903</v>
+        <v>1.004358203429867</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027687460515932</v>
+        <v>1.038473467155793</v>
       </c>
       <c r="J8">
-        <v>1.02635904164137</v>
+        <v>1.011958814151125</v>
       </c>
       <c r="K8">
-        <v>1.028207091513833</v>
+        <v>1.020372592902125</v>
       </c>
       <c r="L8">
-        <v>1.049630807653294</v>
+        <v>1.01336140339426</v>
       </c>
       <c r="M8">
-        <v>1.053381877457932</v>
+        <v>1.015479461942248</v>
       </c>
       <c r="N8">
-        <v>1.027816589205529</v>
+        <v>1.013395911740518</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01913270860595</v>
+        <v>0.9793074747874914</v>
       </c>
       <c r="D9">
-        <v>1.023951350769963</v>
+        <v>1.002027259723301</v>
       </c>
       <c r="E9">
-        <v>1.043990702732765</v>
+        <v>0.9886639490376967</v>
       </c>
       <c r="F9">
-        <v>1.047585513527534</v>
+        <v>0.9900540634497237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027442890548744</v>
+        <v>1.036460150524258</v>
       </c>
       <c r="J9">
-        <v>1.025039677671849</v>
+        <v>1.005612712619828</v>
       </c>
       <c r="K9">
-        <v>1.027153740327915</v>
+        <v>1.015087531458541</v>
       </c>
       <c r="L9">
-        <v>1.047127432267162</v>
+        <v>1.001943662891272</v>
       </c>
       <c r="M9">
-        <v>1.050710755339201</v>
+        <v>1.003310594342714</v>
       </c>
       <c r="N9">
-        <v>1.026495351587837</v>
+        <v>1.007040798017138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017696614033007</v>
+        <v>0.9717557525886741</v>
       </c>
       <c r="D10">
-        <v>1.02295428922285</v>
+        <v>0.9969232645790395</v>
       </c>
       <c r="E10">
-        <v>1.042035095711526</v>
+        <v>0.9791451119789863</v>
       </c>
       <c r="F10">
-        <v>1.045519217413411</v>
+        <v>0.9800025416863339</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027272379955651</v>
+        <v>1.034987715090323</v>
       </c>
       <c r="J10">
-        <v>1.024157383540399</v>
+        <v>1.001136589353483</v>
       </c>
       <c r="K10">
-        <v>1.02644715541768</v>
+        <v>1.011348293530865</v>
       </c>
       <c r="L10">
-        <v>1.045459269277532</v>
+        <v>0.9939014012447248</v>
       </c>
       <c r="M10">
-        <v>1.04893114619275</v>
+        <v>0.9947424936541042</v>
       </c>
       <c r="N10">
-        <v>1.02561180449752</v>
+        <v>1.002558318142337</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017074848851538</v>
+        <v>0.9683846357225716</v>
       </c>
       <c r="D11">
-        <v>1.022522375217032</v>
+        <v>0.9946499262506345</v>
       </c>
       <c r="E11">
-        <v>1.041189122321459</v>
+        <v>0.9748925770112991</v>
       </c>
       <c r="F11">
-        <v>1.044625386519218</v>
+        <v>0.9755118028054336</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027196781571935</v>
+        <v>1.034317290471463</v>
       </c>
       <c r="J11">
-        <v>1.023774700821082</v>
+        <v>0.999134474021662</v>
       </c>
       <c r="K11">
-        <v>1.026140172382716</v>
+        <v>1.009673447359522</v>
       </c>
       <c r="L11">
-        <v>1.044737094937413</v>
+        <v>0.9903040406696619</v>
       </c>
       <c r="M11">
-        <v>1.048160806118585</v>
+        <v>0.9909107937291172</v>
       </c>
       <c r="N11">
-        <v>1.025228578324847</v>
+        <v>1.000553359577099</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016843908784027</v>
+        <v>0.9671163275642339</v>
       </c>
       <c r="D12">
-        <v>1.022361917121736</v>
+        <v>0.9937954990116852</v>
       </c>
       <c r="E12">
-        <v>1.040875010832447</v>
+        <v>0.9732919108208745</v>
       </c>
       <c r="F12">
-        <v>1.044293509321804</v>
+        <v>0.9738214413271097</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027168435979471</v>
+        <v>1.034063146577947</v>
       </c>
       <c r="J12">
-        <v>1.023632459077601</v>
+        <v>0.9983806631363936</v>
       </c>
       <c r="K12">
-        <v>1.026025991491831</v>
+        <v>1.00904254071392</v>
       </c>
       <c r="L12">
-        <v>1.044468868140997</v>
+        <v>0.9889493296144478</v>
       </c>
       <c r="M12">
-        <v>1.047874702147725</v>
+        <v>0.9894679747774549</v>
       </c>
       <c r="N12">
-        <v>1.025086134581776</v>
+        <v>0.9997984781939099</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016893445702186</v>
+        <v>0.967389129358874</v>
       </c>
       <c r="D13">
-        <v>1.022396337088432</v>
+        <v>0.9939792379394622</v>
       </c>
       <c r="E13">
-        <v>1.040942383385163</v>
+        <v>0.9736362377285115</v>
       </c>
       <c r="F13">
-        <v>1.044364692196038</v>
+        <v>0.9741850645894633</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027174528190704</v>
+        <v>1.034117896024368</v>
       </c>
       <c r="J13">
-        <v>1.02366297476867</v>
+        <v>0.998542825837304</v>
       </c>
       <c r="K13">
-        <v>1.026050490627421</v>
+        <v>1.009178277427682</v>
       </c>
       <c r="L13">
-        <v>1.044526402782303</v>
+        <v>0.9892407771701855</v>
       </c>
       <c r="M13">
-        <v>1.047936070882224</v>
+        <v>0.9897783710235661</v>
       </c>
       <c r="N13">
-        <v>1.025116693608626</v>
+        <v>0.9999608711844559</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017055759043775</v>
+        <v>0.9682801315428843</v>
       </c>
       <c r="D14">
-        <v>1.022509112225463</v>
+        <v>0.9945795062342079</v>
       </c>
       <c r="E14">
-        <v>1.041163155317802</v>
+        <v>0.9747607043207308</v>
       </c>
       <c r="F14">
-        <v>1.044597950778633</v>
+        <v>0.9753725411748916</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027194443919986</v>
+        <v>1.034296388381626</v>
       </c>
       <c r="J14">
-        <v>1.023762945037583</v>
+        <v>0.9990723737847892</v>
       </c>
       <c r="K14">
-        <v>1.026130737287177</v>
+        <v>1.009621478375515</v>
       </c>
       <c r="L14">
-        <v>1.044714922810705</v>
+        <v>0.9901924444451748</v>
       </c>
       <c r="M14">
-        <v>1.048137155978963</v>
+        <v>0.9907919365765527</v>
       </c>
       <c r="N14">
-        <v>1.025216805846787</v>
+        <v>1.000491171150767</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017155767141319</v>
+        <v>0.9688269416895754</v>
       </c>
       <c r="D15">
-        <v>1.02257859329386</v>
+        <v>0.9949480094831277</v>
       </c>
       <c r="E15">
-        <v>1.041299196122291</v>
+        <v>0.9754506862584984</v>
       </c>
       <c r="F15">
-        <v>1.044741686436317</v>
+        <v>0.9761011819772605</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027206679555557</v>
+        <v>1.034405679458189</v>
       </c>
       <c r="J15">
-        <v>1.023824527263557</v>
+        <v>0.9993972859615183</v>
       </c>
       <c r="K15">
-        <v>1.026180159550426</v>
+        <v>1.00989337061165</v>
       </c>
       <c r="L15">
-        <v>1.044831078938492</v>
+        <v>0.9907763096848305</v>
       </c>
       <c r="M15">
-        <v>1.048261055679294</v>
+        <v>0.9914137963784748</v>
       </c>
       <c r="N15">
-        <v>1.025278475526586</v>
+        <v>1.000816544740055</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017737880100698</v>
+        <v>0.9719772736485837</v>
       </c>
       <c r="D16">
-        <v>1.022982950231333</v>
+        <v>0.9970727634833799</v>
       </c>
       <c r="E16">
-        <v>1.042091257220419</v>
+        <v>0.9794244632839207</v>
       </c>
       <c r="F16">
-        <v>1.04557855657088</v>
+        <v>0.9802975359649805</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027277359990993</v>
+        <v>1.035031501566871</v>
       </c>
       <c r="J16">
-        <v>1.024182767402757</v>
+        <v>1.001268071896855</v>
       </c>
       <c r="K16">
-        <v>1.026467507280992</v>
+        <v>1.011458238176239</v>
       </c>
       <c r="L16">
-        <v>1.045507200641655</v>
+        <v>0.9941376220857354</v>
       </c>
       <c r="M16">
-        <v>1.048982276081267</v>
+        <v>0.9949941213377564</v>
       </c>
       <c r="N16">
-        <v>1.025637224407875</v>
+        <v>1.002689987406002</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018103043932715</v>
+        <v>0.973925676971799</v>
       </c>
       <c r="D17">
-        <v>1.023236545236681</v>
+        <v>0.9983882829333165</v>
       </c>
       <c r="E17">
-        <v>1.042588313565403</v>
+        <v>0.9818811144666403</v>
       </c>
       <c r="F17">
-        <v>1.046103739569858</v>
+        <v>0.982891727589757</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027321223361358</v>
+        <v>1.035415143722558</v>
       </c>
       <c r="J17">
-        <v>1.024407309926148</v>
+        <v>1.002424089807596</v>
       </c>
       <c r="K17">
-        <v>1.026647478351398</v>
+        <v>1.012424630525362</v>
       </c>
       <c r="L17">
-        <v>1.045931353134016</v>
+        <v>0.9962144710352612</v>
       </c>
       <c r="M17">
-        <v>1.049434742226267</v>
+        <v>0.9972065270865224</v>
       </c>
       <c r="N17">
-        <v>1.025862085807404</v>
+        <v>1.003847646994773</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018316044871541</v>
+        <v>0.9750524524337091</v>
       </c>
       <c r="D18">
-        <v>1.023384445499806</v>
+        <v>0.9991495339878655</v>
       </c>
       <c r="E18">
-        <v>1.042878317125771</v>
+        <v>0.9833015190094458</v>
       </c>
       <c r="F18">
-        <v>1.046410155844231</v>
+        <v>0.9843916347850996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027346637689091</v>
+        <v>1.035635759243542</v>
       </c>
       <c r="J18">
-        <v>1.024538219666188</v>
+        <v>1.00309224588985</v>
       </c>
       <c r="K18">
-        <v>1.026752353291813</v>
+        <v>1.012982963748435</v>
       </c>
       <c r="L18">
-        <v>1.04617876882096</v>
+        <v>0.9974148527023609</v>
       </c>
       <c r="M18">
-        <v>1.049698681584422</v>
+        <v>0.9984853400283374</v>
       </c>
       <c r="N18">
-        <v>1.02599318145429</v>
+        <v>1.004516751935303</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018388673877557</v>
+        <v>0.9754350361633467</v>
       </c>
       <c r="D19">
-        <v>1.023434872683182</v>
+        <v>0.9994080860900163</v>
       </c>
       <c r="E19">
-        <v>1.042977214309937</v>
+        <v>0.9837837582950462</v>
       </c>
       <c r="F19">
-        <v>1.046514650513997</v>
+        <v>0.9849008622580645</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027355274398519</v>
+        <v>1.035710453358956</v>
       </c>
       <c r="J19">
-        <v>1.024582845958336</v>
+        <v>1.003319045618636</v>
       </c>
       <c r="K19">
-        <v>1.026788096102475</v>
+        <v>1.013172446230423</v>
       </c>
       <c r="L19">
-        <v>1.046263133727433</v>
+        <v>0.9978223195528861</v>
       </c>
       <c r="M19">
-        <v>1.049788682127104</v>
+        <v>0.9989194438065215</v>
       </c>
       <c r="N19">
-        <v>1.026037871120892</v>
+        <v>1.004743873745717</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018063864578264</v>
+        <v>0.9737176410083124</v>
       </c>
       <c r="D20">
-        <v>1.023209338686385</v>
+        <v>0.9982477714125368</v>
       </c>
       <c r="E20">
-        <v>1.042534975966877</v>
+        <v>0.9816188438313013</v>
       </c>
       <c r="F20">
-        <v>1.046047383532951</v>
+        <v>0.9826147754507987</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027316534863008</v>
+        <v>1.035374310312141</v>
       </c>
       <c r="J20">
-        <v>1.02438322506073</v>
+        <v>1.00230069774824</v>
       </c>
       <c r="K20">
-        <v>1.026628179408992</v>
+        <v>1.012321501781954</v>
       </c>
       <c r="L20">
-        <v>1.045885844076639</v>
+        <v>0.9959927919471434</v>
       </c>
       <c r="M20">
-        <v>1.049386194471859</v>
+        <v>0.9969703703477637</v>
       </c>
       <c r="N20">
-        <v>1.025837966738714</v>
+        <v>1.003724079704539</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017007961499308</v>
+        <v>0.9680182065541389</v>
       </c>
       <c r="D21">
-        <v>1.022475903468195</v>
+        <v>0.9944030226866709</v>
       </c>
       <c r="E21">
-        <v>1.041098140171342</v>
+        <v>0.974430171147903</v>
       </c>
       <c r="F21">
-        <v>1.044529258330091</v>
+        <v>0.9750234873847599</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027188586546138</v>
+        <v>1.034243969667302</v>
       </c>
       <c r="J21">
-        <v>1.023733508941874</v>
+        <v>0.998916719413363</v>
       </c>
       <c r="K21">
-        <v>1.026107110884785</v>
+        <v>1.009491213061098</v>
       </c>
       <c r="L21">
-        <v>1.044659407798463</v>
+        <v>0.9899127228870319</v>
       </c>
       <c r="M21">
-        <v>1.048077940488237</v>
+        <v>0.9904940174362394</v>
       </c>
       <c r="N21">
-        <v>1.025187327948447</v>
+        <v>1.000335295732279</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016344138252725</v>
+        <v>0.9643409353373722</v>
       </c>
       <c r="D22">
-        <v>1.022014613687925</v>
+        <v>0.9919274941870778</v>
       </c>
       <c r="E22">
-        <v>1.040195441743549</v>
+        <v>0.9697875667599869</v>
       </c>
       <c r="F22">
-        <v>1.043575511900692</v>
+        <v>0.9701206625892885</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027106607407403</v>
+        <v>1.033503564640549</v>
       </c>
       <c r="J22">
-        <v>1.023324449389974</v>
+        <v>0.9967301371019475</v>
       </c>
       <c r="K22">
-        <v>1.025778605315533</v>
+        <v>1.007660583327</v>
       </c>
       <c r="L22">
-        <v>1.04388841870618</v>
+        <v>0.9859822749864928</v>
       </c>
       <c r="M22">
-        <v>1.047255588770356</v>
+        <v>0.986308218707076</v>
       </c>
       <c r="N22">
-        <v>1.024777687485062</v>
+        <v>0.998145608223177</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016696037294373</v>
+        <v>0.9662995477037651</v>
       </c>
       <c r="D23">
-        <v>1.022259166007111</v>
+        <v>0.9932455118669566</v>
       </c>
       <c r="E23">
-        <v>1.040673913868998</v>
+        <v>0.97226085228743</v>
       </c>
       <c r="F23">
-        <v>1.044081039692024</v>
+        <v>0.972732596323826</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02715021128608</v>
+        <v>1.033898949099294</v>
       </c>
       <c r="J23">
-        <v>1.023541352304588</v>
+        <v>0.9978950620924704</v>
       </c>
       <c r="K23">
-        <v>1.025952836415031</v>
+        <v>1.008636029703156</v>
       </c>
       <c r="L23">
-        <v>1.044297123835323</v>
+        <v>0.9880765196437893</v>
       </c>
       <c r="M23">
-        <v>1.047691514663763</v>
+        <v>0.98853843979047</v>
       </c>
       <c r="N23">
-        <v>1.024994898426695</v>
+        <v>0.999312187540805</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01808156802019</v>
+        <v>0.9738116733987147</v>
       </c>
       <c r="D24">
-        <v>1.023221632209236</v>
+        <v>0.9983112812396637</v>
       </c>
       <c r="E24">
-        <v>1.0425590766871</v>
+        <v>0.9817373912225743</v>
       </c>
       <c r="F24">
-        <v>1.04607284813417</v>
+        <v>0.9827399590078819</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027318653920225</v>
+        <v>1.035392770913611</v>
       </c>
       <c r="J24">
-        <v>1.024394108166571</v>
+        <v>1.002356472211855</v>
       </c>
       <c r="K24">
-        <v>1.026636900076682</v>
+        <v>1.012368117715276</v>
       </c>
       <c r="L24">
-        <v>1.045906407614799</v>
+        <v>0.9960929931172914</v>
       </c>
       <c r="M24">
-        <v>1.049408131039222</v>
+        <v>0.9970771153079165</v>
       </c>
       <c r="N24">
-        <v>1.025848865299814</v>
+        <v>1.00377993337429</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019689675183869</v>
+        <v>0.9821514388647611</v>
       </c>
       <c r="D25">
-        <v>1.024337833856198</v>
+        <v>1.003953208713614</v>
       </c>
       <c r="E25">
-        <v>1.044749809791122</v>
+        <v>0.992247364395117</v>
       </c>
       <c r="F25">
-        <v>1.048387608917724</v>
+        <v>0.9938378173518017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027507435091734</v>
+        <v>1.0370029757048</v>
       </c>
       <c r="J25">
-        <v>1.025381245917533</v>
+        <v>1.007294778990916</v>
       </c>
       <c r="K25">
-        <v>1.027426826610438</v>
+        <v>1.016490464619562</v>
       </c>
       <c r="L25">
-        <v>1.047774475473954</v>
+        <v>1.004967234158431</v>
       </c>
       <c r="M25">
-        <v>1.051401097383402</v>
+        <v>1.006532552446651</v>
       </c>
       <c r="N25">
-        <v>1.026837404899609</v>
+        <v>1.008725253115409</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9885290148983893</v>
+        <v>1.006793557220778</v>
       </c>
       <c r="D2">
-        <v>1.008278882820602</v>
+        <v>1.024703507788127</v>
       </c>
       <c r="E2">
-        <v>1.000283744634662</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.002323071927141</v>
+        <v>1.02790717901314</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038193828202888</v>
+        <v>1.045233689360104</v>
       </c>
       <c r="J2">
-        <v>1.01105831933453</v>
+        <v>1.028772955581162</v>
       </c>
       <c r="K2">
-        <v>1.019624072105119</v>
+        <v>1.035829085831804</v>
       </c>
       <c r="L2">
-        <v>1.011739127858363</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.013750137267169</v>
+        <v>1.038990945593829</v>
       </c>
       <c r="N2">
-        <v>1.012494138117985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013565437606009</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039431107699021</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036404519777741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9930141305709045</v>
+        <v>1.009797902824124</v>
       </c>
       <c r="D3">
-        <v>1.011325952928322</v>
+        <v>1.026612563256928</v>
       </c>
       <c r="E3">
-        <v>1.005938331346093</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.008293125499595</v>
+        <v>1.030310712249475</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039006942617308</v>
+        <v>1.045807014072569</v>
       </c>
       <c r="J3">
-        <v>1.013697066198478</v>
+        <v>1.03002498461201</v>
       </c>
       <c r="K3">
-        <v>1.021815938440541</v>
+        <v>1.036915888669754</v>
       </c>
       <c r="L3">
-        <v>1.016495789819435</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.018820982636621</v>
+        <v>1.040569912169582</v>
       </c>
       <c r="N3">
-        <v>1.015136632305158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013984041377133</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040680754648005</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03717031303587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9958529837868516</v>
+        <v>1.011711502470782</v>
       </c>
       <c r="D4">
-        <v>1.013256440295369</v>
+        <v>1.027832493844775</v>
       </c>
       <c r="E4">
-        <v>1.009519739463933</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.012074167097872</v>
+        <v>1.031847757830754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039510019145943</v>
+        <v>1.046164941479694</v>
       </c>
       <c r="J4">
-        <v>1.015363368856459</v>
+        <v>1.030820298246409</v>
       </c>
       <c r="K4">
-        <v>1.023197461842103</v>
+        <v>1.037606220693965</v>
       </c>
       <c r="L4">
-        <v>1.019504611508479</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.022029019390392</v>
+        <v>1.041576422262978</v>
       </c>
       <c r="N4">
-        <v>1.016805301304041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014249997555072</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041477339263236</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037659336947819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.997031840679915</v>
+        <v>1.012511392014085</v>
       </c>
       <c r="D5">
-        <v>1.014058467904381</v>
+        <v>1.028345478118373</v>
       </c>
       <c r="E5">
-        <v>1.011007648551838</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.013644973439612</v>
+        <v>1.032490890271726</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039716100394815</v>
+        <v>1.046314138087626</v>
       </c>
       <c r="J5">
-        <v>1.016054353648205</v>
+        <v>1.031153618738667</v>
       </c>
       <c r="K5">
-        <v>1.023769708052217</v>
+        <v>1.037897088598268</v>
       </c>
       <c r="L5">
-        <v>1.020753696937598</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.023360916202153</v>
+        <v>1.041997198750072</v>
       </c>
       <c r="N5">
-        <v>1.017497267373448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014361661274834</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041810355113165</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037872196611746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9972289357051779</v>
+        <v>1.012648352267441</v>
       </c>
       <c r="D6">
-        <v>1.014192580516429</v>
+        <v>1.028435942061732</v>
       </c>
       <c r="E6">
-        <v>1.011256459596645</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.013907644300604</v>
+        <v>1.032600116481572</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039750388028976</v>
+        <v>1.046341219621218</v>
       </c>
       <c r="J6">
-        <v>1.016169823254947</v>
+        <v>1.031212375985721</v>
       </c>
       <c r="K6">
-        <v>1.023865296684983</v>
+        <v>1.03795024152948</v>
       </c>
       <c r="L6">
-        <v>1.020962515827118</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.023583585531096</v>
+        <v>1.04206911431596</v>
       </c>
       <c r="N6">
-        <v>1.017612900960277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014381574385244</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041867271356307</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037918549837094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9958687923660426</v>
+        <v>1.011730451305626</v>
       </c>
       <c r="D7">
-        <v>1.013267194154511</v>
+        <v>1.027851526009691</v>
       </c>
       <c r="E7">
-        <v>1.00953968951623</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.012095228808704</v>
+        <v>1.031860364657638</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039512793939226</v>
+        <v>1.046172875076159</v>
       </c>
       <c r="J7">
-        <v>1.015372638858819</v>
+        <v>1.03083279466256</v>
       </c>
       <c r="K7">
-        <v>1.023205141477897</v>
+        <v>1.03762214559329</v>
       </c>
       <c r="L7">
-        <v>1.019521363116221</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.022046881166364</v>
+        <v>1.041586010638527</v>
       </c>
       <c r="N7">
-        <v>1.016814584470868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014254804143756</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04148492780929</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037690765483268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9900582387071695</v>
+        <v>1.007825511470934</v>
       </c>
       <c r="D8">
-        <v>1.009317369354538</v>
+        <v>1.025366890186948</v>
       </c>
       <c r="E8">
-        <v>1.002211302520272</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.004358203429867</v>
+        <v>1.028728250252167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038473467155793</v>
+        <v>1.045437492579657</v>
       </c>
       <c r="J8">
-        <v>1.011958814151125</v>
+        <v>1.029209122214282</v>
       </c>
       <c r="K8">
-        <v>1.020372592902125</v>
+        <v>1.036213873415673</v>
       </c>
       <c r="L8">
-        <v>1.01336140339426</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.015479461942248</v>
+        <v>1.039532647388945</v>
       </c>
       <c r="N8">
-        <v>1.013395911740518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013712061661104</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039859828858875</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036699567540852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9793074747874914</v>
+        <v>1.000690405516579</v>
       </c>
       <c r="D9">
-        <v>1.002027259723301</v>
+        <v>1.020848582012454</v>
       </c>
       <c r="E9">
-        <v>0.9886639490376967</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9900540634497237</v>
+        <v>1.023059017556628</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036460150524258</v>
+        <v>1.044030820572303</v>
       </c>
       <c r="J9">
-        <v>1.005612712619828</v>
+        <v>1.026218807319584</v>
       </c>
       <c r="K9">
-        <v>1.015087531458541</v>
+        <v>1.033612225000559</v>
       </c>
       <c r="L9">
-        <v>1.001943662891272</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.003310594342714</v>
+        <v>1.035788737202467</v>
       </c>
       <c r="N9">
-        <v>1.007040798017138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01271187829956</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036896766206927</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034856843876616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9717557525886741</v>
+        <v>0.9958123062087004</v>
       </c>
       <c r="D10">
-        <v>0.9969232645790395</v>
+        <v>1.017793585743737</v>
       </c>
       <c r="E10">
-        <v>0.9791451119789863</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9800025416863339</v>
+        <v>1.019390150595681</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034987715090323</v>
+        <v>1.043059620625386</v>
       </c>
       <c r="J10">
-        <v>1.001136589353483</v>
+        <v>1.024193063915233</v>
       </c>
       <c r="K10">
-        <v>1.011348293530865</v>
+        <v>1.031848835398249</v>
       </c>
       <c r="L10">
-        <v>0.9939014012447248</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9947424936541042</v>
+        <v>1.03341791832534</v>
       </c>
       <c r="N10">
-        <v>1.002558318142337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012037736748304</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035072061972333</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033626869919956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9683846357225716</v>
+        <v>0.9940570864382516</v>
       </c>
       <c r="D11">
-        <v>0.9946499262506345</v>
+        <v>1.016773130986213</v>
       </c>
       <c r="E11">
-        <v>0.9748925770112991</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9755118028054336</v>
+        <v>1.01944306723379</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034317290471463</v>
+        <v>1.042903980128604</v>
       </c>
       <c r="J11">
-        <v>0.999134474021662</v>
+        <v>1.023679204641388</v>
       </c>
       <c r="K11">
-        <v>1.009673447359522</v>
+        <v>1.031385514377103</v>
       </c>
       <c r="L11">
-        <v>0.9903040406696619</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9909107937291172</v>
+        <v>1.034007400114057</v>
       </c>
       <c r="N11">
-        <v>1.000553359577099</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011891892658224</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035976042667325</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033332201333725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9671163275642339</v>
+        <v>0.9935239077495864</v>
       </c>
       <c r="D12">
-        <v>0.9937954990116852</v>
+        <v>1.016486247532553</v>
       </c>
       <c r="E12">
-        <v>0.9732919108208745</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9738214413271097</v>
+        <v>1.020025066657157</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034063146577947</v>
+        <v>1.042931553367954</v>
       </c>
       <c r="J12">
-        <v>0.9983806631363936</v>
+        <v>1.02360489897483</v>
       </c>
       <c r="K12">
-        <v>1.00904254071392</v>
+        <v>1.031304269246852</v>
       </c>
       <c r="L12">
-        <v>0.9889493296144478</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9894679747774549</v>
+        <v>1.034778417651583</v>
       </c>
       <c r="N12">
-        <v>0.9997984781939099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011886642167233</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03691293068403</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033274758164817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.967389129358874</v>
+        <v>0.9939046285066406</v>
       </c>
       <c r="D13">
-        <v>0.9939792379394622</v>
+        <v>1.016757625173757</v>
       </c>
       <c r="E13">
-        <v>0.9736362377285115</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9741850645894633</v>
+        <v>1.021077951068511</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034117896024368</v>
+        <v>1.043113121164462</v>
       </c>
       <c r="J13">
-        <v>0.998542825837304</v>
+        <v>1.023875640807759</v>
       </c>
       <c r="K13">
-        <v>1.009178277427682</v>
+        <v>1.031527686234677</v>
       </c>
       <c r="L13">
-        <v>0.9892407771701855</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9897783710235661</v>
+        <v>1.03576945639932</v>
       </c>
       <c r="N13">
-        <v>0.9999608711844559</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011994073577983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037973563428965</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033430223833627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9682801315428843</v>
+        <v>0.994582781599593</v>
       </c>
       <c r="D14">
-        <v>0.9945795062342079</v>
+        <v>1.017199774695225</v>
       </c>
       <c r="E14">
-        <v>0.9747607043207308</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9753725411748916</v>
+        <v>1.02201602611081</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034296388381626</v>
+        <v>1.043307738868832</v>
       </c>
       <c r="J14">
-        <v>0.9990723737847892</v>
+        <v>1.024218651610335</v>
       </c>
       <c r="K14">
-        <v>1.009621478375515</v>
+        <v>1.031821011270245</v>
       </c>
       <c r="L14">
-        <v>0.9901924444451748</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9907919365765527</v>
+        <v>1.036550802875722</v>
       </c>
       <c r="N14">
-        <v>1.000491171150767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012119443342854</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038764676274774</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033639042723501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9688269416895754</v>
+        <v>0.9949539666954998</v>
       </c>
       <c r="D15">
-        <v>0.9949480094831277</v>
+        <v>1.017437019883499</v>
       </c>
       <c r="E15">
-        <v>0.9754506862584984</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9761011819772605</v>
+        <v>1.022379418576387</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034405679458189</v>
+        <v>1.043395086517291</v>
       </c>
       <c r="J15">
-        <v>0.9993972859615183</v>
+        <v>1.024385814139358</v>
       </c>
       <c r="K15">
-        <v>1.00989337061165</v>
+        <v>1.031967280602511</v>
       </c>
       <c r="L15">
-        <v>0.9907763096848305</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>0.9914137963784748</v>
+        <v>1.036821627839422</v>
       </c>
       <c r="N15">
-        <v>1.000816544740055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012177633120546</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039016297670866</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033748344213456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9719772736485837</v>
+        <v>0.9969389294830814</v>
       </c>
       <c r="D16">
-        <v>0.9970727634833799</v>
+        <v>1.018674320378663</v>
       </c>
       <c r="E16">
-        <v>0.9794244632839207</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9802975359649805</v>
+        <v>1.023778246986546</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035031501566871</v>
+        <v>1.043783877622248</v>
       </c>
       <c r="J16">
-        <v>1.001268071896855</v>
+        <v>1.025197349573386</v>
       </c>
       <c r="K16">
-        <v>1.011458238176239</v>
+        <v>1.032678683583643</v>
       </c>
       <c r="L16">
-        <v>0.9941376220857354</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9949941213377564</v>
+        <v>1.037695594333085</v>
       </c>
       <c r="N16">
-        <v>1.002689987406002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012444820043324</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039668332218387</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034254510688218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.973925676971799</v>
+        <v>0.9981116760932008</v>
       </c>
       <c r="D17">
-        <v>0.9983882829333165</v>
+        <v>1.019396639165663</v>
       </c>
       <c r="E17">
-        <v>0.9818811144666403</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.982891727589757</v>
+        <v>1.024358204806672</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035415143722558</v>
+        <v>1.043980147240338</v>
       </c>
       <c r="J17">
-        <v>1.002424089807596</v>
+        <v>1.025642613708451</v>
       </c>
       <c r="K17">
-        <v>1.012424630525362</v>
+        <v>1.033072912682556</v>
       </c>
       <c r="L17">
-        <v>0.9962144710352612</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9972065270865224</v>
+        <v>1.037952213056944</v>
       </c>
       <c r="N17">
-        <v>1.003847646994773</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012584829363531</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039742012789264</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034535843178014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9750524524337091</v>
+        <v>0.9986747873046724</v>
       </c>
       <c r="D18">
-        <v>0.9991495339878655</v>
+        <v>1.019719486132509</v>
       </c>
       <c r="E18">
-        <v>0.9833015190094458</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9843916347850996</v>
+        <v>1.024178000328121</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035635759243542</v>
+        <v>1.044010136152134</v>
       </c>
       <c r="J18">
-        <v>1.00309224588985</v>
+        <v>1.025787953233872</v>
       </c>
       <c r="K18">
-        <v>1.012982963748435</v>
+        <v>1.033206300810002</v>
       </c>
       <c r="L18">
-        <v>0.9974148527023609</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9984853400283374</v>
+        <v>1.03759204463455</v>
       </c>
       <c r="N18">
-        <v>1.004516751935303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012618643299589</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039219287590102</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034618490586713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9754350361633467</v>
+        <v>0.9986770579382076</v>
       </c>
       <c r="D19">
-        <v>0.9994080860900163</v>
+        <v>1.019682077582088</v>
       </c>
       <c r="E19">
-        <v>0.9837837582950462</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9849008622580645</v>
+        <v>1.023255586222178</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035710453358956</v>
+        <v>1.043886107086683</v>
       </c>
       <c r="J19">
-        <v>1.003319045618636</v>
+        <v>1.025655217638684</v>
       </c>
       <c r="K19">
-        <v>1.013172446230423</v>
+        <v>1.03310673667759</v>
       </c>
       <c r="L19">
-        <v>0.9978223195528861</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9989194438065215</v>
+        <v>1.036622161002918</v>
       </c>
       <c r="N19">
-        <v>1.004743873745717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012556035784244</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038126244381501</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034554504994714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9737176410083124</v>
+        <v>0.9970960283005478</v>
       </c>
       <c r="D20">
-        <v>0.9982477714125368</v>
+        <v>1.018612997659236</v>
       </c>
       <c r="E20">
-        <v>0.9816188438313013</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9826147754507987</v>
+        <v>1.020355574633652</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035374310312141</v>
+        <v>1.043329432059773</v>
       </c>
       <c r="J20">
-        <v>1.00230069774824</v>
+        <v>1.02473935398408</v>
       </c>
       <c r="K20">
-        <v>1.012321501781954</v>
+        <v>1.032336269595976</v>
       </c>
       <c r="L20">
-        <v>0.9959927919471434</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9969703703477637</v>
+        <v>1.034049696295388</v>
       </c>
       <c r="N20">
-        <v>1.003724079704539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012221447579727</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035561457033708</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034013678873242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9680182065541389</v>
+        <v>0.9933641536601832</v>
       </c>
       <c r="D21">
-        <v>0.9944030226866709</v>
+        <v>1.016267186263001</v>
       </c>
       <c r="E21">
-        <v>0.974430171147903</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9750234873847599</v>
+        <v>1.017294613440692</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034243969667302</v>
+        <v>1.042532933086888</v>
       </c>
       <c r="J21">
-        <v>0.998916719413363</v>
+        <v>1.02314196093228</v>
       </c>
       <c r="K21">
-        <v>1.009491213061098</v>
+        <v>1.030946789312327</v>
       </c>
       <c r="L21">
-        <v>0.9899127228870319</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9904940174362394</v>
+        <v>1.031955578303984</v>
       </c>
       <c r="N21">
-        <v>1.000335295732279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011685151993813</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033863056186439</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033034486169825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9643409353373722</v>
+        <v>0.9909942202269681</v>
       </c>
       <c r="D22">
-        <v>0.9919274941870778</v>
+        <v>1.014780649735723</v>
       </c>
       <c r="E22">
-        <v>0.9697875667599869</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9701206625892885</v>
+        <v>1.015447798737802</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033503564640549</v>
+        <v>1.042028396393516</v>
       </c>
       <c r="J22">
-        <v>0.9967301371019475</v>
+        <v>1.022134838960852</v>
       </c>
       <c r="K22">
-        <v>1.007660583327</v>
+        <v>1.03006487767756</v>
       </c>
       <c r="L22">
-        <v>0.9859822749864928</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.986308218707076</v>
+        <v>1.030719320071779</v>
       </c>
       <c r="N22">
-        <v>0.998145608223177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011347768204816</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032884630883956</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03239739173007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9662995477037651</v>
+        <v>0.9922469658704226</v>
       </c>
       <c r="D23">
-        <v>0.9932455118669566</v>
+        <v>1.015559922499713</v>
       </c>
       <c r="E23">
-        <v>0.97226085228743</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.972732596323826</v>
+        <v>1.016425458316027</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033898949099294</v>
+        <v>1.042292079094722</v>
       </c>
       <c r="J23">
-        <v>0.9978950620924704</v>
+        <v>1.022663374766296</v>
       </c>
       <c r="K23">
-        <v>1.008636029703156</v>
+        <v>1.030523486888797</v>
       </c>
       <c r="L23">
-        <v>0.9880765196437893</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.98853843979047</v>
+        <v>1.0313729544302</v>
       </c>
       <c r="N23">
-        <v>0.999312187540805</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01152415704653</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033401944005238</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032711992813713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9738116733987147</v>
+        <v>0.9971062734267216</v>
       </c>
       <c r="D24">
-        <v>0.9983112812396637</v>
+        <v>1.018603217948267</v>
       </c>
       <c r="E24">
-        <v>0.9817373912225743</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9827399590078819</v>
+        <v>1.020230858212504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035392770913611</v>
+        <v>1.043306008167415</v>
       </c>
       <c r="J24">
-        <v>1.002356472211855</v>
+        <v>1.024716171822541</v>
       </c>
       <c r="K24">
-        <v>1.012368117715276</v>
+        <v>1.032311330830279</v>
       </c>
       <c r="L24">
-        <v>0.9960929931172914</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9970771153079165</v>
+        <v>1.033911773800132</v>
       </c>
       <c r="N24">
-        <v>1.00377993337429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012210463647674</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03541126649195</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03396857230518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9821514388647611</v>
+        <v>1.002577704450087</v>
       </c>
       <c r="D25">
-        <v>1.003953208713614</v>
+        <v>1.022050296617759</v>
       </c>
       <c r="E25">
-        <v>0.992247364395117</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9938378173518017</v>
+        <v>1.024548595173289</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0370029757048</v>
+        <v>1.044415950922139</v>
       </c>
       <c r="J25">
-        <v>1.007294778990916</v>
+        <v>1.027018628878082</v>
       </c>
       <c r="K25">
-        <v>1.016490464619562</v>
+        <v>1.034315688701182</v>
       </c>
       <c r="L25">
-        <v>1.004967234158431</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.006532552446651</v>
+        <v>1.036777413818892</v>
       </c>
       <c r="N25">
-        <v>1.008725253115409</v>
+        <v>1.012980411678628</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037679240967422</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035382896374737</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006793557220778</v>
+        <v>1.006619506426078</v>
       </c>
       <c r="D2">
-        <v>1.024703507788127</v>
+        <v>1.024130175012474</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.02790717901314</v>
+        <v>1.027805976031295</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045233689360104</v>
+        <v>1.045018738072227</v>
       </c>
       <c r="J2">
-        <v>1.028772955581162</v>
+        <v>1.028604015862516</v>
       </c>
       <c r="K2">
-        <v>1.035829085831804</v>
+        <v>1.035263270270212</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.038990945593829</v>
+        <v>1.038891058431168</v>
       </c>
       <c r="N2">
-        <v>1.013565437606009</v>
+        <v>1.014836734056455</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039431107699021</v>
+        <v>1.039352053585203</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036404519777741</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036013236397217</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021489421543197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009797902824124</v>
+        <v>1.009536421430475</v>
       </c>
       <c r="D3">
-        <v>1.026612563256928</v>
+        <v>1.025919508893107</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.030310712249475</v>
+        <v>1.030168119310259</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045807014072569</v>
+        <v>1.045534347552621</v>
       </c>
       <c r="J3">
-        <v>1.03002498461201</v>
+        <v>1.029770447378263</v>
       </c>
       <c r="K3">
-        <v>1.036915888669754</v>
+        <v>1.03623114759052</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.040569912169582</v>
+        <v>1.04042901333976</v>
       </c>
       <c r="N3">
-        <v>1.013984041377133</v>
+        <v>1.015146614474484</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040680754648005</v>
+        <v>1.040569242690527</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03717031303587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036694664836019</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021649309353368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011711502470782</v>
+        <v>1.011394821825596</v>
       </c>
       <c r="D4">
-        <v>1.027832493844775</v>
+        <v>1.027063491118493</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.031847757830754</v>
+        <v>1.031679040507353</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046164941479694</v>
+        <v>1.045855632205317</v>
       </c>
       <c r="J4">
-        <v>1.030820298246409</v>
+        <v>1.0305114709502</v>
       </c>
       <c r="K4">
-        <v>1.037606220693965</v>
+        <v>1.036845897851559</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.041576422262978</v>
+        <v>1.041409589727285</v>
       </c>
       <c r="N4">
-        <v>1.014249997555072</v>
+        <v>1.015343541179168</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041477339263236</v>
+        <v>1.041345302663691</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037659336947819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037130329439788</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021748526040447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012511392014085</v>
+        <v>1.012171748544044</v>
       </c>
       <c r="D5">
-        <v>1.028345478118373</v>
+        <v>1.02754483849026</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.032490890271726</v>
+        <v>1.032311308744828</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046314138087626</v>
+        <v>1.045989549227892</v>
       </c>
       <c r="J5">
-        <v>1.031153618738667</v>
+        <v>1.030822151680675</v>
       </c>
       <c r="K5">
-        <v>1.037897088598268</v>
+        <v>1.037105250282894</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.041997198750072</v>
+        <v>1.041819570478562</v>
       </c>
       <c r="N5">
-        <v>1.014361661274834</v>
+        <v>1.015426268700496</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041810355113165</v>
+        <v>1.041669774487205</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037872196611746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037321616461455</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021790293954281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012648352267441</v>
+        <v>1.01230478095692</v>
       </c>
       <c r="D6">
-        <v>1.028435942061732</v>
+        <v>1.027629934406451</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.032600116481572</v>
+        <v>1.032418678715469</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046341219621218</v>
+        <v>1.046014026760274</v>
       </c>
       <c r="J6">
-        <v>1.031212375985721</v>
+        <v>1.030877034004372</v>
       </c>
       <c r="K6">
-        <v>1.03795024152948</v>
+        <v>1.037153054426241</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.04206911431596</v>
+        <v>1.04188964105344</v>
       </c>
       <c r="N6">
-        <v>1.014381574385244</v>
+        <v>1.015441064744988</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041867271356307</v>
+        <v>1.041725230557192</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037918549837094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037365056414807</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021798540751012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011730451305626</v>
+        <v>1.011419913474785</v>
       </c>
       <c r="D7">
-        <v>1.027851526009691</v>
+        <v>1.027086629004584</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.031860364657638</v>
+        <v>1.031694399004293</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046172875076159</v>
+        <v>1.045866362196289</v>
       </c>
       <c r="J7">
-        <v>1.03083279466256</v>
+        <v>1.030529954583437</v>
       </c>
       <c r="K7">
-        <v>1.03762214559329</v>
+        <v>1.03686587881284</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.041586010638527</v>
+        <v>1.041421898353491</v>
       </c>
       <c r="N7">
-        <v>1.014254804143756</v>
+        <v>1.015374678829564</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04148492780929</v>
+        <v>1.041355044104591</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037690765483268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037166624531989</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021753912343789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007825511470934</v>
+        <v>1.007641869352035</v>
       </c>
       <c r="D8">
-        <v>1.025366890186948</v>
+        <v>1.024767082512417</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.028728250252167</v>
+        <v>1.028622046579071</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045437492579657</v>
+        <v>1.045212348822512</v>
       </c>
       <c r="J8">
-        <v>1.029209122214282</v>
+        <v>1.02903069594422</v>
       </c>
       <c r="K8">
-        <v>1.036213873415673</v>
+        <v>1.035621701577041</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.039532647388945</v>
+        <v>1.039427783929062</v>
       </c>
       <c r="N8">
-        <v>1.013712061661104</v>
+        <v>1.015028876281391</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039859828858875</v>
+        <v>1.039776836382684</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036699567540852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036291915494179</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021552810857744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000690405516579</v>
+        <v>1.000720434439062</v>
       </c>
       <c r="D9">
-        <v>1.020848582012454</v>
+        <v>1.020536964792435</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.023059017556628</v>
+        <v>1.023053984912447</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044030820572303</v>
+        <v>1.043944830380128</v>
       </c>
       <c r="J9">
-        <v>1.026218807319584</v>
+        <v>1.026247777934108</v>
       </c>
       <c r="K9">
-        <v>1.033612225000559</v>
+        <v>1.03330540522695</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.035788737202467</v>
+        <v>1.035783781581403</v>
       </c>
       <c r="N9">
-        <v>1.01271187829956</v>
+        <v>1.01429872098297</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036896766206927</v>
+        <v>1.036892844145373</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034856843876616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03465066908544</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021155638927533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9958123062087004</v>
+        <v>0.9960194152342725</v>
       </c>
       <c r="D10">
-        <v>1.017793585743737</v>
+        <v>1.017699818096189</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.019390150595681</v>
+        <v>1.019468398921226</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043059620625386</v>
+        <v>1.043082163799415</v>
       </c>
       <c r="J10">
-        <v>1.024193063915233</v>
+        <v>1.024391859944188</v>
       </c>
       <c r="K10">
-        <v>1.031848835398249</v>
+        <v>1.031756685255234</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.03341791832534</v>
+        <v>1.033494822610269</v>
       </c>
       <c r="N10">
-        <v>1.012037736748304</v>
+        <v>1.01392432731576</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035072061972333</v>
+        <v>1.035132923192269</v>
       </c>
       <c r="Q10">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R10">
-        <v>1.033626869919956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033574153834758</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020885202320799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9940570864382516</v>
+        <v>0.9943616958437134</v>
       </c>
       <c r="D11">
-        <v>1.016773130986213</v>
+        <v>1.016774770390295</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.01944306723379</v>
+        <v>1.01956582752611</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042903980128604</v>
+        <v>1.042977940600191</v>
       </c>
       <c r="J11">
-        <v>1.023679204641388</v>
+        <v>1.023970930676086</v>
       </c>
       <c r="K11">
-        <v>1.031385514377103</v>
+        <v>1.03138712417637</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.034007400114057</v>
+        <v>1.034127958965787</v>
       </c>
       <c r="N11">
-        <v>1.011891892658224</v>
+        <v>1.014057978567631</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035976042667325</v>
+        <v>1.036071403290103</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033332201333725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033348989773843</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020854462979271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9935239077495864</v>
+        <v>0.9938593250423886</v>
       </c>
       <c r="D12">
-        <v>1.016486247532553</v>
+        <v>1.016514584515375</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.020025066657157</v>
+        <v>1.020161397860446</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042931553367954</v>
+        <v>1.043019924430136</v>
       </c>
       <c r="J12">
-        <v>1.02360489897483</v>
+        <v>1.023925862279547</v>
       </c>
       <c r="K12">
-        <v>1.031304269246852</v>
+        <v>1.031332086051491</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.034778417651583</v>
+        <v>1.034912269126559</v>
       </c>
       <c r="N12">
-        <v>1.011886642167233</v>
+        <v>1.014160732137081</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03691293068403</v>
+        <v>1.037018769633691</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033274758164817</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033310076700263</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020866976284429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9939046285066406</v>
+        <v>0.9942119362436015</v>
       </c>
       <c r="D13">
-        <v>1.016757625173757</v>
+        <v>1.016754711383758</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.021077951068511</v>
+        <v>1.021200806453443</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043113121164462</v>
+        <v>1.043184198542848</v>
       </c>
       <c r="J13">
-        <v>1.023875640807759</v>
+        <v>1.024169768276619</v>
       </c>
       <c r="K13">
-        <v>1.031527686234677</v>
+        <v>1.03152482571891</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.03576945639932</v>
+        <v>1.035890090563903</v>
       </c>
       <c r="N13">
-        <v>1.011994073577983</v>
+        <v>1.014214876126898</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037973563428965</v>
+        <v>1.038068927181571</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033430223833627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033443607187981</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020917543353346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.994582781599593</v>
+        <v>0.9948444182138362</v>
       </c>
       <c r="D14">
-        <v>1.017199774695225</v>
+        <v>1.017149452111674</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.02201602611081</v>
+        <v>1.022117634476837</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043307738868832</v>
+        <v>1.043352884086382</v>
       </c>
       <c r="J14">
-        <v>1.024218651610335</v>
+        <v>1.024469222533915</v>
       </c>
       <c r="K14">
-        <v>1.031821011270245</v>
+        <v>1.031771597681224</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.036550802875722</v>
+        <v>1.036650598594655</v>
       </c>
       <c r="N14">
-        <v>1.012119443342854</v>
+        <v>1.014231314922893</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038764676274774</v>
+        <v>1.038843556158096</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033639042723501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033619646280385</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020970140057725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9949539666954998</v>
+        <v>0.9951919931106959</v>
       </c>
       <c r="D15">
-        <v>1.017437019883499</v>
+        <v>1.017362587167073</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.022379418576387</v>
+        <v>1.022470152159524</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043395086517291</v>
+        <v>1.043427173711758</v>
       </c>
       <c r="J15">
-        <v>1.024385814139358</v>
+        <v>1.024613859033529</v>
       </c>
       <c r="K15">
-        <v>1.031967280602511</v>
+        <v>1.031894182439022</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.036821627839422</v>
+        <v>1.036910755276866</v>
       </c>
       <c r="N15">
-        <v>1.012177633120546</v>
+        <v>1.014229990466172</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039016297670866</v>
+        <v>1.039086743344952</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033748344213456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033712771059322</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020993718164968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9969389294830814</v>
+        <v>0.9970635299441644</v>
       </c>
       <c r="D16">
-        <v>1.018674320378663</v>
+        <v>1.018482886814268</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.023778246986546</v>
+        <v>1.023817010547884</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043783877622248</v>
+        <v>1.043753754386443</v>
       </c>
       <c r="J16">
-        <v>1.025197349573386</v>
+        <v>1.025316980183493</v>
       </c>
       <c r="K16">
-        <v>1.032678683583643</v>
+        <v>1.032490535666466</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.037695594333085</v>
+        <v>1.037733701306178</v>
       </c>
       <c r="N16">
-        <v>1.012444820043324</v>
+        <v>1.0142088399428</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039668332218387</v>
+        <v>1.039698452544181</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034254510688218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03413789394867</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02109539279749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9981116760932008</v>
+        <v>0.9981803811112938</v>
       </c>
       <c r="D17">
-        <v>1.019396639165663</v>
+        <v>1.019145149933194</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.024358204806672</v>
+        <v>1.024371340075073</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043980147240338</v>
+        <v>1.043918887860807</v>
       </c>
       <c r="J17">
-        <v>1.025642613708451</v>
+        <v>1.025708664623662</v>
       </c>
       <c r="K17">
-        <v>1.033072912682556</v>
+        <v>1.032825620749539</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.037952213056944</v>
+        <v>1.037965131896641</v>
       </c>
       <c r="N17">
-        <v>1.012584829363531</v>
+        <v>1.014213099641129</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039742012789264</v>
+        <v>1.039752225051177</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034535843178014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034377657552123</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021146969941259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9986747873046724</v>
+        <v>0.9987236908424254</v>
       </c>
       <c r="D18">
-        <v>1.019719486132509</v>
+        <v>1.019446349251047</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.024178000328121</v>
+        <v>1.024182088220188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044010136152134</v>
+        <v>1.043938144462194</v>
       </c>
       <c r="J18">
-        <v>1.025787953233872</v>
+        <v>1.025835002464425</v>
       </c>
       <c r="K18">
-        <v>1.033206300810002</v>
+        <v>1.032937648586309</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.03759204463455</v>
+        <v>1.037596066178782</v>
       </c>
       <c r="N18">
-        <v>1.012618643299589</v>
+        <v>1.014195268518659</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039219287590102</v>
+        <v>1.039222467259097</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034618490586713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034444067848126</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021152183429866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9986770579382076</v>
+        <v>0.9987342324688244</v>
       </c>
       <c r="D19">
-        <v>1.019682077582088</v>
+        <v>1.01941941480717</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.023255586222178</v>
+        <v>1.023263637646631</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043886107086683</v>
+        <v>1.043819952135309</v>
       </c>
       <c r="J19">
-        <v>1.025655217638684</v>
+        <v>1.025710236967595</v>
       </c>
       <c r="K19">
-        <v>1.03310673667759</v>
+        <v>1.032848363908929</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.036622161002918</v>
+        <v>1.036630082146448</v>
       </c>
       <c r="N19">
-        <v>1.012556035784244</v>
+        <v>1.014137426301429</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038126244381501</v>
+        <v>1.038132509356182</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034554504994714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034387974619458</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021116486144485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9970960283005478</v>
+        <v>0.9972376292414153</v>
       </c>
       <c r="D20">
-        <v>1.018612997659236</v>
+        <v>1.018448674184648</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.020355574633652</v>
+        <v>1.0204033057056</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043329432059773</v>
+        <v>1.043314589932481</v>
       </c>
       <c r="J20">
-        <v>1.02473935398408</v>
+        <v>1.02487545252268</v>
       </c>
       <c r="K20">
-        <v>1.032336269595976</v>
+        <v>1.032174701601486</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.034049696295388</v>
+        <v>1.03409663071462</v>
       </c>
       <c r="N20">
-        <v>1.012221447579727</v>
+        <v>1.013955963095017</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035561457033708</v>
+        <v>1.035598600880012</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034013678873242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033915982243672</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02096117772915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9933641536601832</v>
+        <v>0.9937350223375903</v>
       </c>
       <c r="D21">
-        <v>1.016267186263001</v>
+        <v>1.016337613036213</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.017294613440692</v>
+        <v>1.017449088189911</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042532933086888</v>
+        <v>1.042645614257111</v>
       </c>
       <c r="J21">
-        <v>1.02314196093228</v>
+        <v>1.02349703524691</v>
       </c>
       <c r="K21">
-        <v>1.030946789312327</v>
+        <v>1.031015936933799</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.031955578303984</v>
+        <v>1.032107255015938</v>
       </c>
       <c r="N21">
-        <v>1.011685151993813</v>
+        <v>1.014002535756104</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033863056186439</v>
+        <v>1.033983099242917</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033034486169825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033100239588692</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020755452805461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9909942202269681</v>
+        <v>0.9915093321467811</v>
       </c>
       <c r="D22">
-        <v>1.014780649735723</v>
+        <v>1.014998865229493</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.015447798737802</v>
+        <v>1.015669719204506</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042028396393516</v>
+        <v>1.042221334793799</v>
       </c>
       <c r="J22">
-        <v>1.022134838960852</v>
+        <v>1.022626766191106</v>
       </c>
       <c r="K22">
-        <v>1.03006487767756</v>
+        <v>1.030278934605626</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.030719320071779</v>
+        <v>1.030937018650847</v>
       </c>
       <c r="N22">
-        <v>1.011347768204816</v>
+        <v>1.014026574074329</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032884630883956</v>
+        <v>1.033056926537752</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03239739173007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032564300847212</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020622881976693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9922469658704226</v>
+        <v>0.9926750030868157</v>
       </c>
       <c r="D23">
-        <v>1.015559922499713</v>
+        <v>1.015692154592011</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.016425458316027</v>
+        <v>1.016606722389354</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042292079094722</v>
+        <v>1.042437453080171</v>
       </c>
       <c r="J23">
-        <v>1.022663374766296</v>
+        <v>1.023072698506182</v>
       </c>
       <c r="K23">
-        <v>1.030523486888797</v>
+        <v>1.030653261841315</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.0313729544302</v>
+        <v>1.031550857937608</v>
       </c>
       <c r="N23">
-        <v>1.01152415704653</v>
+        <v>1.01397003234291</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033401944005238</v>
+        <v>1.033542744093818</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032711992813713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032818369600493</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020688345816136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9971062734267216</v>
+        <v>0.9972483042635675</v>
       </c>
       <c r="D24">
-        <v>1.018603217948267</v>
+        <v>1.018439553811792</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.020230858212504</v>
+        <v>1.020278827360858</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043306008167415</v>
+        <v>1.043291594671476</v>
       </c>
       <c r="J24">
-        <v>1.024716171822541</v>
+        <v>1.024852691473236</v>
       </c>
       <c r="K24">
-        <v>1.032311330830279</v>
+        <v>1.032150407663634</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.033911773800132</v>
+        <v>1.033958943096777</v>
       </c>
       <c r="N24">
-        <v>1.012210463647674</v>
+        <v>1.013943579243571</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03541126649195</v>
+        <v>1.03544859809267</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03396857230518</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033868659779575</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020951849992725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002577704450087</v>
+        <v>1.002542480653974</v>
       </c>
       <c r="D25">
-        <v>1.022050296617759</v>
+        <v>1.021656473971414</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.024548595173289</v>
+        <v>1.024512835185333</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044415950922139</v>
+        <v>1.044289203533185</v>
       </c>
       <c r="J25">
-        <v>1.027018628878082</v>
+        <v>1.026984582094639</v>
       </c>
       <c r="K25">
-        <v>1.034315688701182</v>
+        <v>1.033927652079905</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.036777413818892</v>
+        <v>1.036742175737071</v>
       </c>
       <c r="N25">
-        <v>1.012980411678628</v>
+        <v>1.014462599404548</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037679240967422</v>
+        <v>1.037651352278058</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035382896374737</v>
+        <v>1.035122100959418</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021265988266528</v>
       </c>
     </row>
   </sheetData>
